--- a/events/Tel_Mond_2023/Foot_StartList.xlsx
+++ b/events/Tel_Mond_2023/Foot_StartList.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="150" yWindow="525" windowWidth="28455" windowHeight="12210"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="StartList" state="visible" r:id="rId4"/>
+    <sheet name="StartList" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="328">
   <si>
     <t>STNO</t>
   </si>
@@ -713,6 +719,285 @@
   </si>
   <si>
     <t>050-5727465</t>
+  </si>
+  <si>
+    <t>הדר אורי</t>
+  </si>
+  <si>
+    <t>Long-M45</t>
+  </si>
+  <si>
+    <t>050-6238151</t>
+  </si>
+  <si>
+    <t>Khaustov Igor</t>
+  </si>
+  <si>
+    <t>Short-M45</t>
+  </si>
+  <si>
+    <t>גוטמן יהודה</t>
+  </si>
+  <si>
+    <t>ברנע שחר</t>
+  </si>
+  <si>
+    <t>Short-MOpen</t>
+  </si>
+  <si>
+    <t>ברנע איל</t>
+  </si>
+  <si>
+    <t>אבידן אליק</t>
+  </si>
+  <si>
+    <t>052-8449780</t>
+  </si>
+  <si>
+    <t>גור אלעזר</t>
+  </si>
+  <si>
+    <t>054-2157555</t>
+  </si>
+  <si>
+    <t>מייר-גור תמר</t>
+  </si>
+  <si>
+    <t>Short-W45</t>
+  </si>
+  <si>
+    <t>052-8393610</t>
+  </si>
+  <si>
+    <t>ויינר תומר</t>
+  </si>
+  <si>
+    <t>052-8468384</t>
+  </si>
+  <si>
+    <t>גרדי דן</t>
+  </si>
+  <si>
+    <t>לשנות לדן גרדי</t>
+  </si>
+  <si>
+    <t>כהן שלומי</t>
+  </si>
+  <si>
+    <t>052-3499040</t>
+  </si>
+  <si>
+    <t>נהרי צחר</t>
+  </si>
+  <si>
+    <t>054-4902535</t>
+  </si>
+  <si>
+    <t>דודלזק צביקה</t>
+  </si>
+  <si>
+    <t>Short-M60</t>
+  </si>
+  <si>
+    <t>050-5820593</t>
+  </si>
+  <si>
+    <t>לדרר שלו</t>
+  </si>
+  <si>
+    <t>058-5657982</t>
+  </si>
+  <si>
+    <t>שלו ארז</t>
+  </si>
+  <si>
+    <t>Long-Open</t>
+  </si>
+  <si>
+    <t>054-7717390</t>
+  </si>
+  <si>
+    <t>אשכנזי אסף</t>
+  </si>
+  <si>
+    <t>רביד נועם</t>
+  </si>
+  <si>
+    <t>ASATLVMTBO</t>
+  </si>
+  <si>
+    <t>052-9246327</t>
+  </si>
+  <si>
+    <t>שור אריק</t>
+  </si>
+  <si>
+    <t>ממלוק רוני</t>
+  </si>
+  <si>
+    <t>054-4283049</t>
+  </si>
+  <si>
+    <t>לדרר דן</t>
+  </si>
+  <si>
+    <t>נתנאל איל</t>
+  </si>
+  <si>
+    <t>054-4968996</t>
+  </si>
+  <si>
+    <t>שומרוני שמעון</t>
+  </si>
+  <si>
+    <t>050-5474415</t>
+  </si>
+  <si>
+    <t>סמואלס דוד</t>
+  </si>
+  <si>
+    <t>050-6868554</t>
+  </si>
+  <si>
+    <t>ברקאי עזרא</t>
+  </si>
+  <si>
+    <t>052-8668894</t>
+  </si>
+  <si>
+    <t>כספי יעל</t>
+  </si>
+  <si>
+    <t>Short-WOpe</t>
+  </si>
+  <si>
+    <t>051-2410848</t>
+  </si>
+  <si>
+    <t>לוין הדר</t>
+  </si>
+  <si>
+    <t>052-9513322</t>
+  </si>
+  <si>
+    <t>שכטר גיל</t>
+  </si>
+  <si>
+    <t>054-5670240</t>
+  </si>
+  <si>
+    <t>גור אופיר</t>
+  </si>
+  <si>
+    <t>052-3707083</t>
+  </si>
+  <si>
+    <t>אלפרט רועי</t>
+  </si>
+  <si>
+    <t>058-7644447</t>
+  </si>
+  <si>
+    <t>גרינברג אניה</t>
+  </si>
+  <si>
+    <t>054-5749800</t>
+  </si>
+  <si>
+    <t>גרינברג גיל</t>
+  </si>
+  <si>
+    <t>052-4622904</t>
+  </si>
+  <si>
+    <t>סגל זף</t>
+  </si>
+  <si>
+    <t>כהן גל</t>
+  </si>
+  <si>
+    <t>052-5921113</t>
+  </si>
+  <si>
+    <t>זקן תמיר</t>
+  </si>
+  <si>
+    <t>050-3612706</t>
+  </si>
+  <si>
+    <t>גרנט עופר</t>
+  </si>
+  <si>
+    <t>054-5619567</t>
+  </si>
+  <si>
+    <t>סלפק אלון</t>
+  </si>
+  <si>
+    <t>054-2470305</t>
+  </si>
+  <si>
+    <t>מנור משה</t>
+  </si>
+  <si>
+    <t>050-8640464</t>
+  </si>
+  <si>
+    <t>כנען דותן</t>
+  </si>
+  <si>
+    <t>051-5179922</t>
+  </si>
+  <si>
+    <t>שחורי איתי</t>
+  </si>
+  <si>
+    <t>054-4203853</t>
+  </si>
+  <si>
+    <t>ניניו אלי</t>
+  </si>
+  <si>
+    <t>052-3995696</t>
+  </si>
+  <si>
+    <t>גוטמן רעי</t>
+  </si>
+  <si>
+    <t>גנדלמן אייל</t>
+  </si>
+  <si>
+    <t>050-7264366</t>
+  </si>
+  <si>
+    <t>שובינסקי  אלון</t>
+  </si>
+  <si>
+    <t>054-3327985</t>
+  </si>
+  <si>
+    <t>ויינר עמית</t>
+  </si>
+  <si>
+    <t>052-8388800</t>
+  </si>
+  <si>
+    <t>שביב רן</t>
+  </si>
+  <si>
+    <t>מינצר צפריר</t>
+  </si>
+  <si>
+    <t>050-2129306</t>
+  </si>
+  <si>
+    <t>Long-OPEN</t>
+  </si>
+  <si>
+    <t>מצגר קובי</t>
+  </si>
+  <si>
+    <t>054-6839778</t>
   </si>
 </sst>
 </file>
@@ -720,13 +1005,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="t" numFmtId="197"/>
+    <numFmt numFmtId="164" formatCode="\t"/>
   </numFmts>
   <fonts count="1">
     <font>
-      <b val="false"/>
-      <i val="false"/>
-      <u val="none"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -743,24 +1025,26 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
-    <xf numFmtId="20" fontId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="197" fontId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -870,18 +1154,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="false" defaultColWidth="9.28125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,8 +1233,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:15">
+      <c r="A2">
         <v>1751</v>
       </c>
       <c r="B2" t="s">
@@ -941,11 +1246,11 @@
       <c r="D2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E2" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>8222222</v>
       </c>
       <c r="H2" t="b">
@@ -954,35 +1259,31 @@
       <c r="I2" t="s">
         <v>149</v>
       </c>
-      <c r="J2"/>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2"/>
-      <c r="M2" t="n">
-        <v>25</v>
-      </c>
-      <c r="N2"/>
+      <c r="M2">
+        <v>25</v>
+      </c>
       <c r="O2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:15">
+      <c r="A3">
         <v>40541195</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E3" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="b">
@@ -991,21 +1292,18 @@
       <c r="I3" t="s">
         <v>149</v>
       </c>
-      <c r="J3"/>
       <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="L3"/>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>50</v>
       </c>
-      <c r="N3"/>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>547454844</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:15">
+      <c r="A4">
         <v>7218</v>
       </c>
       <c r="B4" t="s">
@@ -1017,11 +1315,11 @@
       <c r="D4" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>0.375</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>8501486</v>
       </c>
       <c r="H4" t="b">
@@ -1030,21 +1328,18 @@
       <c r="I4" t="s">
         <v>149</v>
       </c>
-      <c r="J4"/>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4"/>
-      <c r="M4" t="n">
-        <v>25</v>
-      </c>
-      <c r="N4"/>
+      <c r="M4">
+        <v>25</v>
+      </c>
       <c r="O4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:15">
+      <c r="A5">
         <v>1214</v>
       </c>
       <c r="B5" t="s">
@@ -1056,11 +1351,11 @@
       <c r="D5" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>0.375</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>2071142</v>
       </c>
       <c r="H5" t="b">
@@ -1069,21 +1364,18 @@
       <c r="I5" t="s">
         <v>149</v>
       </c>
-      <c r="J5"/>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5"/>
-      <c r="M5" t="n">
-        <v>25</v>
-      </c>
-      <c r="N5"/>
+      <c r="M5">
+        <v>25</v>
+      </c>
       <c r="O5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:15">
+      <c r="A6">
         <v>3015</v>
       </c>
       <c r="B6" t="s">
@@ -1095,11 +1387,11 @@
       <c r="D6" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E6" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>8010662</v>
       </c>
       <c r="H6" t="b">
@@ -1108,21 +1400,18 @@
       <c r="I6" t="s">
         <v>149</v>
       </c>
-      <c r="J6"/>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6"/>
-      <c r="M6" t="n">
-        <v>25</v>
-      </c>
-      <c r="N6"/>
+      <c r="M6">
+        <v>25</v>
+      </c>
       <c r="O6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:15">
+      <c r="A7">
         <v>1095</v>
       </c>
       <c r="B7" t="s">
@@ -1134,11 +1423,11 @@
       <c r="D7" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>0.375</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2071028</v>
       </c>
       <c r="H7" t="b">
@@ -1147,21 +1436,18 @@
       <c r="I7" t="s">
         <v>149</v>
       </c>
-      <c r="J7"/>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7"/>
-      <c r="M7" t="n">
-        <v>25</v>
-      </c>
-      <c r="N7"/>
+      <c r="M7">
+        <v>25</v>
+      </c>
       <c r="O7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:15">
+      <c r="A8">
         <v>5199</v>
       </c>
       <c r="B8" t="s">
@@ -1173,11 +1459,11 @@
       <c r="D8" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E8" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2071296</v>
       </c>
       <c r="H8" t="b">
@@ -1186,21 +1472,18 @@
       <c r="I8" t="s">
         <v>150</v>
       </c>
-      <c r="J8"/>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8"/>
-      <c r="M8" t="n">
-        <v>25</v>
-      </c>
-      <c r="N8"/>
-      <c r="O8" t="n">
+      <c r="M8">
+        <v>25</v>
+      </c>
+      <c r="O8">
         <v>506224551</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:15">
+      <c r="A9">
         <v>3501</v>
       </c>
       <c r="B9" t="s">
@@ -1212,11 +1495,11 @@
       <c r="D9" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>0.375</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1105870</v>
       </c>
       <c r="H9" t="b">
@@ -1225,21 +1508,18 @@
       <c r="I9" t="s">
         <v>149</v>
       </c>
-      <c r="J9"/>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9"/>
-      <c r="M9" t="n">
-        <v>25</v>
-      </c>
-      <c r="N9"/>
+      <c r="M9">
+        <v>25</v>
+      </c>
       <c r="O9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:15">
+      <c r="A10">
         <v>5966</v>
       </c>
       <c r="B10" t="s">
@@ -1251,11 +1531,11 @@
       <c r="D10" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E10" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>2071282</v>
       </c>
       <c r="H10" t="b">
@@ -1264,21 +1544,18 @@
       <c r="I10" t="s">
         <v>149</v>
       </c>
-      <c r="J10"/>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10"/>
-      <c r="M10" t="n">
-        <v>25</v>
-      </c>
-      <c r="N10"/>
-      <c r="O10" t="n">
+      <c r="M10">
+        <v>25</v>
+      </c>
+      <c r="O10">
         <v>532240881</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:15">
+      <c r="A11">
         <v>3404</v>
       </c>
       <c r="B11" t="s">
@@ -1290,11 +1567,11 @@
       <c r="D11" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>0.375</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>7207793</v>
       </c>
       <c r="H11" t="b">
@@ -1303,21 +1580,18 @@
       <c r="I11" t="s">
         <v>150</v>
       </c>
-      <c r="J11"/>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11"/>
-      <c r="M11" t="n">
-        <v>25</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11" t="n">
+      <c r="M11">
+        <v>25</v>
+      </c>
+      <c r="O11">
         <v>545545876</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:15">
+      <c r="A12">
         <v>603</v>
       </c>
       <c r="B12" t="s">
@@ -1329,11 +1603,11 @@
       <c r="D12" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>0.375</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>2071005</v>
       </c>
       <c r="H12" t="b">
@@ -1342,35 +1616,31 @@
       <c r="I12" t="s">
         <v>149</v>
       </c>
-      <c r="J12"/>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12"/>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12"/>
+      <c r="M12">
+        <v>0</v>
+      </c>
       <c r="O12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:15">
+      <c r="A13">
         <v>224564427</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13"/>
       <c r="D13" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E13" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="b">
@@ -1379,21 +1649,18 @@
       <c r="I13" t="s">
         <v>149</v>
       </c>
-      <c r="J13"/>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13"/>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>40</v>
       </c>
-      <c r="N13"/>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>545282162</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:15">
+      <c r="A14">
         <v>5716</v>
       </c>
       <c r="B14" t="s">
@@ -1405,11 +1672,11 @@
       <c r="D14" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E14" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>2071582</v>
       </c>
       <c r="H14" t="b">
@@ -1418,17 +1685,15 @@
       <c r="I14" t="s">
         <v>149</v>
       </c>
-      <c r="J14"/>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14"/>
-      <c r="M14" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="M14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
         <v>5566</v>
       </c>
       <c r="B15" t="s">
@@ -1440,11 +1705,11 @@
       <c r="D15" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E15" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>2071178</v>
       </c>
       <c r="H15" t="b">
@@ -1453,21 +1718,18 @@
       <c r="I15" t="s">
         <v>149</v>
       </c>
-      <c r="J15"/>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15"/>
-      <c r="M15" t="n">
-        <v>25</v>
-      </c>
-      <c r="N15"/>
+      <c r="M15">
+        <v>25</v>
+      </c>
       <c r="O15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:15">
+      <c r="A16">
         <v>4377</v>
       </c>
       <c r="B16" t="s">
@@ -1479,11 +1741,11 @@
       <c r="D16" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E16" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>2068536</v>
       </c>
       <c r="H16" t="b">
@@ -1492,21 +1754,18 @@
       <c r="I16" t="s">
         <v>149</v>
       </c>
-      <c r="J16"/>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16"/>
-      <c r="M16" t="n">
-        <v>25</v>
-      </c>
-      <c r="N16"/>
+      <c r="M16">
+        <v>25</v>
+      </c>
       <c r="O16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:15">
+      <c r="A17">
         <v>3191</v>
       </c>
       <c r="B17" t="s">
@@ -1518,11 +1777,11 @@
       <c r="D17" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E17" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>8461951</v>
       </c>
       <c r="H17" t="b">
@@ -1531,21 +1790,18 @@
       <c r="I17" t="s">
         <v>149</v>
       </c>
-      <c r="J17"/>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17"/>
-      <c r="M17" t="n">
-        <v>25</v>
-      </c>
-      <c r="N17"/>
+      <c r="M17">
+        <v>25</v>
+      </c>
       <c r="O17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:15">
+      <c r="A18">
         <v>931</v>
       </c>
       <c r="B18" t="s">
@@ -1557,11 +1813,11 @@
       <c r="D18" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E18" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>7770005</v>
       </c>
       <c r="H18" t="b">
@@ -1570,21 +1826,18 @@
       <c r="I18" t="s">
         <v>149</v>
       </c>
-      <c r="J18"/>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18"/>
-      <c r="M18" t="n">
-        <v>25</v>
-      </c>
-      <c r="N18"/>
+      <c r="M18">
+        <v>25</v>
+      </c>
       <c r="O18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:15">
+      <c r="A19">
         <v>3778</v>
       </c>
       <c r="B19" t="s">
@@ -1596,11 +1849,11 @@
       <c r="D19" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>0.4375</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>2071156</v>
       </c>
       <c r="H19" t="b">
@@ -1609,21 +1862,18 @@
       <c r="I19" t="s">
         <v>150</v>
       </c>
-      <c r="J19"/>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19"/>
-      <c r="M19" t="n">
-        <v>25</v>
-      </c>
-      <c r="N19"/>
-      <c r="O19" t="n">
+      <c r="M19">
+        <v>25</v>
+      </c>
+      <c r="O19">
         <v>543339653</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:15">
+      <c r="A20">
         <v>4841</v>
       </c>
       <c r="B20" t="s">
@@ -1635,11 +1885,11 @@
       <c r="D20" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>0.375</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>2071464</v>
       </c>
       <c r="H20" t="b">
@@ -1648,21 +1898,18 @@
       <c r="I20" t="s">
         <v>149</v>
       </c>
-      <c r="J20"/>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20"/>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20"/>
+      <c r="M20">
+        <v>0</v>
+      </c>
       <c r="O20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:15">
+      <c r="A21">
         <v>6429</v>
       </c>
       <c r="B21" t="s">
@@ -1674,11 +1921,11 @@
       <c r="D21" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>0.375</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>8502545</v>
       </c>
       <c r="H21" t="b">
@@ -1687,21 +1934,18 @@
       <c r="I21" t="s">
         <v>150</v>
       </c>
-      <c r="J21"/>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21"/>
-      <c r="M21" t="n">
-        <v>25</v>
-      </c>
-      <c r="N21"/>
-      <c r="O21" t="n">
+      <c r="M21">
+        <v>25</v>
+      </c>
+      <c r="O21">
         <v>546742675</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:15">
+      <c r="A22">
         <v>2212</v>
       </c>
       <c r="B22" t="s">
@@ -1713,11 +1957,11 @@
       <c r="D22" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E22" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>2071048</v>
       </c>
       <c r="H22" t="b">
@@ -1726,21 +1970,18 @@
       <c r="I22" t="s">
         <v>149</v>
       </c>
-      <c r="J22"/>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22"/>
-      <c r="M22" t="n">
-        <v>25</v>
-      </c>
-      <c r="N22"/>
+      <c r="M22">
+        <v>25</v>
+      </c>
       <c r="O22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:15">
+      <c r="A23">
         <v>6949</v>
       </c>
       <c r="B23" t="s">
@@ -1752,11 +1993,11 @@
       <c r="D23" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E23" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>2145084</v>
       </c>
       <c r="H23" t="b">
@@ -1765,21 +2006,18 @@
       <c r="I23" t="s">
         <v>149</v>
       </c>
-      <c r="J23"/>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23"/>
-      <c r="M23" t="n">
-        <v>25</v>
-      </c>
-      <c r="N23"/>
+      <c r="M23">
+        <v>25</v>
+      </c>
       <c r="O23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:15">
+      <c r="A24">
         <v>5105</v>
       </c>
       <c r="B24" t="s">
@@ -1791,11 +2029,11 @@
       <c r="D24" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E24" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>2071032</v>
       </c>
       <c r="H24" t="b">
@@ -1804,21 +2042,18 @@
       <c r="I24" t="s">
         <v>149</v>
       </c>
-      <c r="J24"/>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24"/>
-      <c r="M24" t="n">
-        <v>25</v>
-      </c>
-      <c r="N24"/>
+      <c r="M24">
+        <v>25</v>
+      </c>
       <c r="O24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:15">
+      <c r="A25">
         <v>741</v>
       </c>
       <c r="B25" t="s">
@@ -1830,11 +2065,11 @@
       <c r="D25" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E25" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>1409902</v>
       </c>
       <c r="H25" t="b">
@@ -1843,17 +2078,15 @@
       <c r="I25" t="s">
         <v>149</v>
       </c>
-      <c r="J25"/>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25"/>
-      <c r="M25" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="M25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
         <v>2892</v>
       </c>
       <c r="B26" t="s">
@@ -1865,11 +2098,11 @@
       <c r="D26" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E26" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2071026</v>
       </c>
       <c r="H26" t="b">
@@ -1878,21 +2111,18 @@
       <c r="I26" t="s">
         <v>149</v>
       </c>
-      <c r="J26"/>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26"/>
-      <c r="M26" t="n">
-        <v>25</v>
-      </c>
-      <c r="N26"/>
+      <c r="M26">
+        <v>25</v>
+      </c>
       <c r="O26" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:15">
+      <c r="A27">
         <v>6163</v>
       </c>
       <c r="B27" t="s">
@@ -1904,11 +2134,11 @@
       <c r="D27" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E27" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2071558</v>
       </c>
       <c r="H27" t="b">
@@ -1917,21 +2147,18 @@
       <c r="I27" t="s">
         <v>150</v>
       </c>
-      <c r="J27"/>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27"/>
-      <c r="M27" t="n">
-        <v>25</v>
-      </c>
-      <c r="N27"/>
+      <c r="M27">
+        <v>25</v>
+      </c>
       <c r="O27" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:15">
+      <c r="A28">
         <v>2491</v>
       </c>
       <c r="B28" t="s">
@@ -1943,11 +2170,11 @@
       <c r="D28" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E28" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>2071013</v>
       </c>
       <c r="H28" t="b">
@@ -1956,21 +2183,18 @@
       <c r="I28" t="s">
         <v>150</v>
       </c>
-      <c r="J28"/>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28"/>
-      <c r="M28" t="n">
-        <v>25</v>
-      </c>
-      <c r="N28"/>
+      <c r="M28">
+        <v>25</v>
+      </c>
       <c r="O28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:15">
+      <c r="A29">
         <v>2490</v>
       </c>
       <c r="B29" t="s">
@@ -1982,11 +2206,11 @@
       <c r="D29" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="1">
         <v>0.375</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2071025</v>
       </c>
       <c r="H29" t="b">
@@ -1995,21 +2219,18 @@
       <c r="I29" t="s">
         <v>150</v>
       </c>
-      <c r="J29"/>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29"/>
-      <c r="M29" t="n">
-        <v>25</v>
-      </c>
-      <c r="N29"/>
+      <c r="M29">
+        <v>25</v>
+      </c>
       <c r="O29" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:15">
+      <c r="A30">
         <v>2489</v>
       </c>
       <c r="B30" t="s">
@@ -2021,11 +2242,11 @@
       <c r="D30" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="1">
         <v>0.375</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>2071644</v>
       </c>
       <c r="H30" t="b">
@@ -2034,21 +2255,18 @@
       <c r="I30" t="s">
         <v>149</v>
       </c>
-      <c r="J30"/>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30"/>
-      <c r="M30" t="n">
-        <v>25</v>
-      </c>
-      <c r="N30"/>
+      <c r="M30">
+        <v>25</v>
+      </c>
       <c r="O30" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:15">
+      <c r="A31">
         <v>3055</v>
       </c>
       <c r="B31" t="s">
@@ -2060,11 +2278,11 @@
       <c r="D31" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E31" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>2071692</v>
       </c>
       <c r="H31" t="b">
@@ -2073,21 +2291,18 @@
       <c r="I31" t="s">
         <v>149</v>
       </c>
-      <c r="J31"/>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31"/>
-      <c r="M31" t="n">
-        <v>25</v>
-      </c>
-      <c r="N31"/>
-      <c r="O31" t="n">
+      <c r="M31">
+        <v>25</v>
+      </c>
+      <c r="O31">
         <v>528757462</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:15">
+      <c r="A32">
         <v>3989</v>
       </c>
       <c r="B32" t="s">
@@ -2099,11 +2314,11 @@
       <c r="D32" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="1">
         <v>0.375</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>7203677</v>
       </c>
       <c r="H32" t="b">
@@ -2112,21 +2327,18 @@
       <c r="I32" t="s">
         <v>149</v>
       </c>
-      <c r="J32"/>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32"/>
-      <c r="M32" t="n">
-        <v>25</v>
-      </c>
-      <c r="N32"/>
+      <c r="M32">
+        <v>25</v>
+      </c>
       <c r="O32" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:15">
+      <c r="A33">
         <v>6329</v>
       </c>
       <c r="B33" t="s">
@@ -2138,11 +2350,11 @@
       <c r="D33" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E33" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>2071678</v>
       </c>
       <c r="H33" t="b">
@@ -2151,21 +2363,18 @@
       <c r="I33" t="s">
         <v>149</v>
       </c>
-      <c r="J33"/>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33"/>
-      <c r="M33" t="n">
-        <v>25</v>
-      </c>
-      <c r="N33"/>
+      <c r="M33">
+        <v>25</v>
+      </c>
       <c r="O33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:15">
+      <c r="A34">
         <v>2090</v>
       </c>
       <c r="B34" t="s">
@@ -2177,11 +2386,11 @@
       <c r="D34" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E34" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>2071031</v>
       </c>
       <c r="H34" t="b">
@@ -2190,21 +2399,18 @@
       <c r="I34" t="s">
         <v>149</v>
       </c>
-      <c r="J34"/>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34"/>
-      <c r="M34" t="n">
-        <v>25</v>
-      </c>
-      <c r="N34"/>
+      <c r="M34">
+        <v>25</v>
+      </c>
       <c r="O34" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:15">
+      <c r="A35">
         <v>2604</v>
       </c>
       <c r="B35" t="s">
@@ -2216,11 +2422,11 @@
       <c r="D35" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E35" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>2088715</v>
       </c>
       <c r="H35" t="b">
@@ -2229,21 +2435,18 @@
       <c r="I35" t="s">
         <v>149</v>
       </c>
-      <c r="J35"/>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35"/>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35"/>
+      <c r="M35">
+        <v>0</v>
+      </c>
       <c r="O35" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:15">
+      <c r="A36">
         <v>5116</v>
       </c>
       <c r="B36" t="s">
@@ -2255,11 +2458,11 @@
       <c r="D36" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E36" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>2083354</v>
       </c>
       <c r="H36" t="b">
@@ -2268,21 +2471,18 @@
       <c r="I36" t="s">
         <v>149</v>
       </c>
-      <c r="J36"/>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36"/>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36"/>
-      <c r="O36" t="n">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>546170703</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:15">
+      <c r="A37">
         <v>7292</v>
       </c>
       <c r="B37" t="s">
@@ -2294,11 +2494,11 @@
       <c r="D37" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="1">
         <v>0.375</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>2022937</v>
       </c>
       <c r="H37" t="b">
@@ -2307,21 +2507,18 @@
       <c r="I37" t="s">
         <v>149</v>
       </c>
-      <c r="J37"/>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37"/>
-      <c r="M37" t="n">
-        <v>25</v>
-      </c>
-      <c r="N37"/>
+      <c r="M37">
+        <v>25</v>
+      </c>
       <c r="O37" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:15">
+      <c r="A38">
         <v>6514</v>
       </c>
       <c r="B38" t="s">
@@ -2333,11 +2530,11 @@
       <c r="D38" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E38" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>8499899</v>
       </c>
       <c r="H38" t="b">
@@ -2346,21 +2543,18 @@
       <c r="I38" t="s">
         <v>150</v>
       </c>
-      <c r="J38"/>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38"/>
-      <c r="M38" t="n">
-        <v>25</v>
-      </c>
-      <c r="N38"/>
-      <c r="O38" t="n">
+      <c r="M38">
+        <v>25</v>
+      </c>
+      <c r="O38">
         <v>544650660</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:15">
+      <c r="A39">
         <v>4378</v>
       </c>
       <c r="B39" t="s">
@@ -2372,11 +2566,11 @@
       <c r="D39" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E39" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>2071164</v>
       </c>
       <c r="H39" t="b">
@@ -2385,21 +2579,18 @@
       <c r="I39" t="s">
         <v>149</v>
       </c>
-      <c r="J39"/>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39"/>
-      <c r="M39" t="n">
-        <v>25</v>
-      </c>
-      <c r="N39"/>
+      <c r="M39">
+        <v>25</v>
+      </c>
       <c r="O39" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:15">
+      <c r="A40">
         <v>1084</v>
       </c>
       <c r="B40" t="s">
@@ -2411,11 +2602,11 @@
       <c r="D40" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E40" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>8401084</v>
       </c>
       <c r="H40" t="b">
@@ -2424,21 +2615,18 @@
       <c r="I40" t="s">
         <v>149</v>
       </c>
-      <c r="J40"/>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40"/>
-      <c r="M40" t="n">
-        <v>25</v>
-      </c>
-      <c r="N40"/>
-      <c r="O40" t="n">
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="O40">
         <v>528112316</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:15">
+      <c r="A41">
         <v>4203</v>
       </c>
       <c r="B41" t="s">
@@ -2450,11 +2638,11 @@
       <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E41" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>1008072</v>
       </c>
       <c r="H41" t="b">
@@ -2463,21 +2651,18 @@
       <c r="I41" t="s">
         <v>149</v>
       </c>
-      <c r="J41"/>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41"/>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41"/>
+      <c r="M41">
+        <v>0</v>
+      </c>
       <c r="O41" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:15">
+      <c r="A42">
         <v>5862</v>
       </c>
       <c r="B42" t="s">
@@ -2489,11 +2674,11 @@
       <c r="D42" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E42" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>2071601</v>
       </c>
       <c r="H42" t="b">
@@ -2502,21 +2687,18 @@
       <c r="I42" t="s">
         <v>150</v>
       </c>
-      <c r="J42"/>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42"/>
-      <c r="M42" t="n">
-        <v>25</v>
-      </c>
-      <c r="N42"/>
+      <c r="M42">
+        <v>25</v>
+      </c>
       <c r="O42" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:15">
+      <c r="A43">
         <v>3544</v>
       </c>
       <c r="B43" t="s">
@@ -2528,11 +2710,11 @@
       <c r="D43" t="s">
         <v>140</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="1">
         <v>0.375</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>2071634</v>
       </c>
       <c r="H43" t="b">
@@ -2541,21 +2723,18 @@
       <c r="I43" t="s">
         <v>149</v>
       </c>
-      <c r="J43"/>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43"/>
-      <c r="M43" t="n">
-        <v>25</v>
-      </c>
-      <c r="N43"/>
+      <c r="M43">
+        <v>25</v>
+      </c>
       <c r="O43" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:15">
+      <c r="A44">
         <v>6458</v>
       </c>
       <c r="B44" t="s">
@@ -2567,11 +2746,11 @@
       <c r="D44" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E44" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>2071604</v>
       </c>
       <c r="H44" t="b">
@@ -2580,21 +2759,18 @@
       <c r="I44" t="s">
         <v>149</v>
       </c>
-      <c r="J44"/>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44"/>
-      <c r="M44" t="n">
-        <v>25</v>
-      </c>
-      <c r="N44"/>
-      <c r="O44" t="n">
+      <c r="M44">
+        <v>25</v>
+      </c>
+      <c r="O44">
         <v>549984206</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:15">
+      <c r="A45">
         <v>6283</v>
       </c>
       <c r="B45" t="s">
@@ -2606,11 +2782,11 @@
       <c r="D45" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E45" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>2071517</v>
       </c>
       <c r="H45" t="b">
@@ -2619,21 +2795,18 @@
       <c r="I45" t="s">
         <v>149</v>
       </c>
-      <c r="J45"/>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45"/>
-      <c r="M45" t="n">
-        <v>25</v>
-      </c>
-      <c r="N45"/>
+      <c r="M45">
+        <v>25</v>
+      </c>
       <c r="O45" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:15">
+      <c r="A46">
         <v>7188</v>
       </c>
       <c r="B46" t="s">
@@ -2645,11 +2818,11 @@
       <c r="D46" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="1">
         <v>0.375</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>8275226</v>
       </c>
       <c r="H46" t="b">
@@ -2658,21 +2831,18 @@
       <c r="I46" t="s">
         <v>149</v>
       </c>
-      <c r="J46"/>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46"/>
-      <c r="M46" t="n">
-        <v>25</v>
-      </c>
-      <c r="N46"/>
+      <c r="M46">
+        <v>25</v>
+      </c>
       <c r="O46" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:15">
+      <c r="A47">
         <v>3089</v>
       </c>
       <c r="B47" t="s">
@@ -2684,11 +2854,11 @@
       <c r="D47" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E47" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>2144836</v>
       </c>
       <c r="H47" t="b">
@@ -2697,21 +2867,18 @@
       <c r="I47" t="s">
         <v>149</v>
       </c>
-      <c r="J47"/>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47"/>
-      <c r="M47" t="n">
-        <v>25</v>
-      </c>
-      <c r="N47"/>
+      <c r="M47">
+        <v>25</v>
+      </c>
       <c r="O47" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:15">
+      <c r="A48">
         <v>6100</v>
       </c>
       <c r="B48" t="s">
@@ -2723,11 +2890,11 @@
       <c r="D48" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="1">
         <v>0.375</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>1021231</v>
       </c>
       <c r="H48" t="b">
@@ -2736,21 +2903,18 @@
       <c r="I48" t="s">
         <v>149</v>
       </c>
-      <c r="J48"/>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48"/>
-      <c r="M48" t="n">
-        <v>25</v>
-      </c>
-      <c r="N48"/>
+      <c r="M48">
+        <v>25</v>
+      </c>
       <c r="O48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:15">
+      <c r="A49">
         <v>1370</v>
       </c>
       <c r="B49" t="s">
@@ -2762,11 +2926,11 @@
       <c r="D49" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="1">
         <v>0.375</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>2071050</v>
       </c>
       <c r="H49" t="b">
@@ -2775,21 +2939,18 @@
       <c r="I49" t="s">
         <v>149</v>
       </c>
-      <c r="J49"/>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49"/>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49"/>
-      <c r="O49" t="n">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="O49">
         <v>522201914</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:15">
+      <c r="A50">
         <v>6428</v>
       </c>
       <c r="B50" t="s">
@@ -2801,11 +2962,11 @@
       <c r="D50" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="1">
         <v>0.375</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>8003973</v>
       </c>
       <c r="H50" t="b">
@@ -2814,21 +2975,18 @@
       <c r="I50" t="s">
         <v>149</v>
       </c>
-      <c r="J50"/>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50"/>
-      <c r="M50" t="n">
-        <v>25</v>
-      </c>
-      <c r="N50"/>
-      <c r="O50" t="n">
+      <c r="M50">
+        <v>25</v>
+      </c>
+      <c r="O50">
         <v>526363320</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:15">
+      <c r="A51">
         <v>3312</v>
       </c>
       <c r="B51" t="s">
@@ -2840,11 +2998,11 @@
       <c r="D51" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E51" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>2071389</v>
       </c>
       <c r="H51" t="b">
@@ -2853,21 +3011,18 @@
       <c r="I51" t="s">
         <v>150</v>
       </c>
-      <c r="J51"/>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51"/>
-      <c r="M51" t="n">
-        <v>25</v>
-      </c>
-      <c r="N51"/>
+      <c r="M51">
+        <v>25</v>
+      </c>
       <c r="O51" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:15">
+      <c r="A52">
         <v>6732</v>
       </c>
       <c r="B52" t="s">
@@ -2879,11 +3034,11 @@
       <c r="D52" t="s">
         <v>141</v>
       </c>
-      <c r="E52" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E52" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F52" s="2"/>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>8657546</v>
       </c>
       <c r="H52" t="b">
@@ -2892,21 +3047,18 @@
       <c r="I52" t="s">
         <v>149</v>
       </c>
-      <c r="J52"/>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52"/>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52"/>
+      <c r="M52">
+        <v>0</v>
+      </c>
       <c r="O52" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:15">
+      <c r="A53">
         <v>5232</v>
       </c>
       <c r="B53" t="s">
@@ -2918,11 +3070,11 @@
       <c r="D53" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E53" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F53" s="2"/>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>7204750</v>
       </c>
       <c r="H53" t="b">
@@ -2931,17 +3083,15 @@
       <c r="I53" t="s">
         <v>149</v>
       </c>
-      <c r="J53"/>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53"/>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54">
         <v>1918</v>
       </c>
       <c r="B54" t="s">
@@ -2953,11 +3103,11 @@
       <c r="D54" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E54" s="1">
         <v>0.375</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>2071152</v>
       </c>
       <c r="H54" t="b">
@@ -2966,21 +3116,18 @@
       <c r="I54" t="s">
         <v>149</v>
       </c>
-      <c r="J54"/>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54"/>
-      <c r="M54" t="n">
-        <v>25</v>
-      </c>
-      <c r="N54"/>
+      <c r="M54">
+        <v>25</v>
+      </c>
       <c r="O54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:15">
+      <c r="A55">
         <v>5809</v>
       </c>
       <c r="B55" t="s">
@@ -2992,11 +3139,11 @@
       <c r="D55" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="1">
         <v>0.375</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>1375078</v>
       </c>
       <c r="H55" t="b">
@@ -3005,21 +3152,18 @@
       <c r="I55" t="s">
         <v>149</v>
       </c>
-      <c r="J55"/>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55"/>
-      <c r="M55" t="n">
-        <v>25</v>
-      </c>
-      <c r="N55"/>
+      <c r="M55">
+        <v>25</v>
+      </c>
       <c r="O55" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:15">
+      <c r="A56">
         <v>4120</v>
       </c>
       <c r="B56" t="s">
@@ -3031,11 +3175,11 @@
       <c r="D56" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E56" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>2300229</v>
       </c>
       <c r="H56" t="b">
@@ -3044,21 +3188,18 @@
       <c r="I56" t="s">
         <v>149</v>
       </c>
-      <c r="J56"/>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56"/>
-      <c r="M56" t="n">
-        <v>25</v>
-      </c>
-      <c r="N56"/>
+      <c r="M56">
+        <v>25</v>
+      </c>
       <c r="O56" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:15">
+      <c r="A57">
         <v>5000</v>
       </c>
       <c r="B57" t="s">
@@ -3070,11 +3211,11 @@
       <c r="D57" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E57" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F57" s="2"/>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>2071368</v>
       </c>
       <c r="H57" t="b">
@@ -3083,21 +3224,18 @@
       <c r="I57" t="s">
         <v>149</v>
       </c>
-      <c r="J57"/>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57"/>
-      <c r="M57" t="n">
+      <c r="M57">
         <v>40</v>
       </c>
-      <c r="N57"/>
-      <c r="O57" t="n">
+      <c r="O57">
         <v>544902535</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:15">
+      <c r="A58">
         <v>3567</v>
       </c>
       <c r="B58" t="s">
@@ -3109,11 +3247,11 @@
       <c r="D58" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E58" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>7150479</v>
       </c>
       <c r="H58" t="b">
@@ -3122,21 +3260,18 @@
       <c r="I58" t="s">
         <v>149</v>
       </c>
-      <c r="J58"/>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58"/>
-      <c r="M58" t="n">
-        <v>25</v>
-      </c>
-      <c r="N58"/>
+      <c r="M58">
+        <v>25</v>
+      </c>
       <c r="O58" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:15">
+      <c r="A59">
         <v>4</v>
       </c>
       <c r="B59" t="s">
@@ -3148,11 +3283,11 @@
       <c r="D59" t="s">
         <v>140</v>
       </c>
-      <c r="E59" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E59" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>2071221</v>
       </c>
       <c r="H59" t="b">
@@ -3161,21 +3296,18 @@
       <c r="I59" t="s">
         <v>149</v>
       </c>
-      <c r="J59"/>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59"/>
-      <c r="M59" t="n">
-        <v>25</v>
-      </c>
-      <c r="N59"/>
+      <c r="M59">
+        <v>25</v>
+      </c>
       <c r="O59" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:15">
+      <c r="A60">
         <v>4439</v>
       </c>
       <c r="B60" t="s">
@@ -3187,11 +3319,11 @@
       <c r="D60" t="s">
         <v>141</v>
       </c>
-      <c r="E60" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E60" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>2071195</v>
       </c>
       <c r="H60" t="b">
@@ -3200,21 +3332,18 @@
       <c r="I60" t="s">
         <v>149</v>
       </c>
-      <c r="J60"/>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60"/>
-      <c r="M60" t="n">
-        <v>25</v>
-      </c>
-      <c r="N60"/>
+      <c r="M60">
+        <v>25</v>
+      </c>
       <c r="O60" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:15">
+      <c r="A61">
         <v>4165</v>
       </c>
       <c r="B61" t="s">
@@ -3226,11 +3355,11 @@
       <c r="D61" t="s">
         <v>142</v>
       </c>
-      <c r="E61" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E61" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>2071109</v>
       </c>
       <c r="H61" t="b">
@@ -3239,21 +3368,18 @@
       <c r="I61" t="s">
         <v>150</v>
       </c>
-      <c r="J61"/>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61"/>
-      <c r="M61" t="n">
-        <v>25</v>
-      </c>
-      <c r="N61"/>
+      <c r="M61">
+        <v>25</v>
+      </c>
       <c r="O61" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:15">
+      <c r="A62">
         <v>3613</v>
       </c>
       <c r="B62" t="s">
@@ -3265,11 +3391,11 @@
       <c r="D62" t="s">
         <v>141</v>
       </c>
-      <c r="E62" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E62" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>9471203</v>
       </c>
       <c r="H62" t="b">
@@ -3278,21 +3404,18 @@
       <c r="I62" t="s">
         <v>149</v>
       </c>
-      <c r="J62"/>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62"/>
-      <c r="M62" t="n">
-        <v>25</v>
-      </c>
-      <c r="N62"/>
+      <c r="M62">
+        <v>25</v>
+      </c>
       <c r="O62" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:15">
+      <c r="A63">
         <v>5231</v>
       </c>
       <c r="B63" t="s">
@@ -3304,11 +3427,11 @@
       <c r="D63" t="s">
         <v>140</v>
       </c>
-      <c r="E63" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E63" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>8004535</v>
       </c>
       <c r="H63" t="b">
@@ -3317,36 +3440,32 @@
       <c r="I63" t="s">
         <v>150</v>
       </c>
-      <c r="J63"/>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63"/>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63"/>
-      <c r="O63" t="n">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="O63">
         <v>535315434</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:15">
+      <c r="A64">
         <v>303054878</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="C64"/>
       <c r="D64" t="s">
         <v>142</v>
       </c>
-      <c r="E64" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E64" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" t="n">
-        <v>0</v>
+      <c r="G64">
+        <v>7010070</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -3354,23 +3473,21 @@
       <c r="I64" t="s">
         <v>149</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>7010070</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64"/>
-      <c r="M64" t="n">
+      <c r="M64">
         <v>40</v>
       </c>
-      <c r="N64"/>
-      <c r="O64" t="n">
+      <c r="O64">
         <v>526868697</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:15">
+      <c r="A65">
         <v>4260</v>
       </c>
       <c r="B65" t="s">
@@ -3382,11 +3499,11 @@
       <c r="D65" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E65" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>2071198</v>
       </c>
       <c r="H65" t="b">
@@ -3395,21 +3512,18 @@
       <c r="I65" t="s">
         <v>150</v>
       </c>
-      <c r="J65"/>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65"/>
-      <c r="M65" t="n">
-        <v>25</v>
-      </c>
-      <c r="N65"/>
-      <c r="O65" t="n">
+      <c r="M65">
+        <v>25</v>
+      </c>
+      <c r="O65">
         <v>547372680</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:15">
+      <c r="A66">
         <v>4002</v>
       </c>
       <c r="B66" t="s">
@@ -3421,11 +3535,11 @@
       <c r="D66" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E66" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>2071123</v>
       </c>
       <c r="H66" t="b">
@@ -3434,21 +3548,18 @@
       <c r="I66" t="s">
         <v>149</v>
       </c>
-      <c r="J66"/>
       <c r="K66" t="b">
         <v>0</v>
       </c>
-      <c r="L66"/>
-      <c r="M66" t="n">
-        <v>25</v>
-      </c>
-      <c r="N66"/>
+      <c r="M66">
+        <v>25</v>
+      </c>
       <c r="O66" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:15">
+      <c r="A67">
         <v>5790</v>
       </c>
       <c r="B67" t="s">
@@ -3460,11 +3571,11 @@
       <c r="D67" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E67" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>2447900</v>
       </c>
       <c r="H67" t="b">
@@ -3473,21 +3584,18 @@
       <c r="I67" t="s">
         <v>149</v>
       </c>
-      <c r="J67"/>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67"/>
-      <c r="M67" t="n">
-        <v>25</v>
-      </c>
-      <c r="N67"/>
+      <c r="M67">
+        <v>25</v>
+      </c>
       <c r="O67" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:15">
+      <c r="A68">
         <v>3130</v>
       </c>
       <c r="B68" t="s">
@@ -3499,11 +3607,11 @@
       <c r="D68" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E68" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>9150545</v>
       </c>
       <c r="H68" t="b">
@@ -3512,21 +3620,18 @@
       <c r="I68" t="s">
         <v>149</v>
       </c>
-      <c r="J68"/>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68"/>
-      <c r="M68" t="n">
-        <v>25</v>
-      </c>
-      <c r="N68"/>
+      <c r="M68">
+        <v>25</v>
+      </c>
       <c r="O68" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:15">
+      <c r="A69">
         <v>5625</v>
       </c>
       <c r="B69" t="s">
@@ -3538,11 +3643,11 @@
       <c r="D69" t="s">
         <v>142</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="E69" s="1">
         <v>0.375</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>2071658</v>
       </c>
       <c r="H69" t="b">
@@ -3551,21 +3656,18 @@
       <c r="I69" t="s">
         <v>149</v>
       </c>
-      <c r="J69"/>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69"/>
-      <c r="M69" t="n">
-        <v>25</v>
-      </c>
-      <c r="N69"/>
+      <c r="M69">
+        <v>25</v>
+      </c>
       <c r="O69" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:15">
+      <c r="A70">
         <v>5335</v>
       </c>
       <c r="B70" t="s">
@@ -3577,11 +3679,11 @@
       <c r="D70" t="s">
         <v>140</v>
       </c>
-      <c r="E70" s="1" t="n">
+      <c r="E70" s="1">
         <v>0.375</v>
       </c>
       <c r="F70" s="2"/>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>7210091</v>
       </c>
       <c r="H70" t="b">
@@ -3590,21 +3692,18 @@
       <c r="I70" t="s">
         <v>149</v>
       </c>
-      <c r="J70"/>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70"/>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70"/>
-      <c r="O70" t="n">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="O70">
         <v>504203936</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:15">
+      <c r="A71">
         <v>3853</v>
       </c>
       <c r="B71" t="s">
@@ -3616,11 +3715,11 @@
       <c r="D71" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E71" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>2071479</v>
       </c>
       <c r="H71" t="b">
@@ -3629,21 +3728,18 @@
       <c r="I71" t="s">
         <v>149</v>
       </c>
-      <c r="J71"/>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71"/>
-      <c r="M71" t="n">
-        <v>25</v>
-      </c>
-      <c r="N71"/>
+      <c r="M71">
+        <v>25</v>
+      </c>
       <c r="O71" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:15">
+      <c r="A72">
         <v>1995</v>
       </c>
       <c r="B72" t="s">
@@ -3655,11 +3751,11 @@
       <c r="D72" t="s">
         <v>142</v>
       </c>
-      <c r="E72" s="1" t="n">
+      <c r="E72" s="1">
         <v>0.375</v>
       </c>
       <c r="F72" s="2"/>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>2083344</v>
       </c>
       <c r="H72" t="b">
@@ -3668,21 +3764,18 @@
       <c r="I72" t="s">
         <v>149</v>
       </c>
-      <c r="J72"/>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72"/>
-      <c r="M72" t="n">
-        <v>25</v>
-      </c>
-      <c r="N72"/>
-      <c r="O72" t="n">
+      <c r="M72">
+        <v>25</v>
+      </c>
+      <c r="O72">
         <v>537257569</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:15">
+      <c r="A73">
         <v>4984</v>
       </c>
       <c r="B73" t="s">
@@ -3694,11 +3787,11 @@
       <c r="D73" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E73" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F73" s="2"/>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>7002791</v>
       </c>
       <c r="H73" t="b">
@@ -3707,35 +3800,31 @@
       <c r="I73" t="s">
         <v>149</v>
       </c>
-      <c r="J73"/>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73"/>
-      <c r="M73" t="n">
-        <v>25</v>
-      </c>
-      <c r="N73"/>
-      <c r="O73" t="n">
+      <c r="M73">
+        <v>25</v>
+      </c>
+      <c r="O73">
         <v>547396921</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:15">
+      <c r="A74">
         <v>61677035</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
       </c>
-      <c r="C74"/>
       <c r="D74" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E74" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F74" s="2"/>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="b">
@@ -3744,35 +3833,31 @@
       <c r="I74" t="s">
         <v>149</v>
       </c>
-      <c r="J74"/>
       <c r="K74" t="b">
         <v>1</v>
       </c>
-      <c r="L74"/>
-      <c r="M74" t="n">
+      <c r="M74">
         <v>50</v>
       </c>
-      <c r="N74"/>
-      <c r="O74" t="n">
+      <c r="O74">
         <v>523222713</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:15">
+      <c r="A75">
         <v>300842614</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
       </c>
-      <c r="C75"/>
       <c r="D75" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E75" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="b">
@@ -3781,21 +3866,18 @@
       <c r="I75" t="s">
         <v>150</v>
       </c>
-      <c r="J75"/>
       <c r="K75" t="b">
         <v>1</v>
       </c>
-      <c r="L75"/>
-      <c r="M75" t="n">
+      <c r="M75">
         <v>50</v>
       </c>
-      <c r="N75"/>
-      <c r="O75" t="n">
+      <c r="O75">
         <v>504214410</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:15">
+      <c r="A76">
         <v>3861</v>
       </c>
       <c r="B76" t="s">
@@ -3807,11 +3889,11 @@
       <c r="D76" t="s">
         <v>141</v>
       </c>
-      <c r="E76" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E76" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>2071204</v>
       </c>
       <c r="H76" t="b">
@@ -3820,21 +3902,18 @@
       <c r="I76" t="s">
         <v>150</v>
       </c>
-      <c r="J76"/>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76"/>
-      <c r="M76" t="n">
-        <v>25</v>
-      </c>
-      <c r="N76"/>
+      <c r="M76">
+        <v>25</v>
+      </c>
       <c r="O76" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:15">
+      <c r="A77">
         <v>3862</v>
       </c>
       <c r="B77" t="s">
@@ -3846,11 +3925,11 @@
       <c r="D77" t="s">
         <v>141</v>
       </c>
-      <c r="E77" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E77" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F77" s="2"/>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>2071203</v>
       </c>
       <c r="H77" t="b">
@@ -3859,35 +3938,31 @@
       <c r="I77" t="s">
         <v>149</v>
       </c>
-      <c r="J77"/>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77"/>
-      <c r="M77" t="n">
-        <v>25</v>
-      </c>
-      <c r="N77"/>
+      <c r="M77">
+        <v>25</v>
+      </c>
       <c r="O77" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:15">
+      <c r="A78">
         <v>340302652</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
       </c>
-      <c r="C78"/>
       <c r="D78" t="s">
         <v>141</v>
       </c>
-      <c r="E78" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E78" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F78" s="2"/>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="b">
@@ -3896,35 +3971,31 @@
       <c r="I78" t="s">
         <v>149</v>
       </c>
-      <c r="J78"/>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78"/>
-      <c r="M78" t="n">
+      <c r="M78">
         <v>40</v>
       </c>
-      <c r="N78"/>
-      <c r="O78" t="n">
+      <c r="O78">
         <v>509500778</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:15">
+      <c r="A79">
         <v>218511251</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="C79"/>
       <c r="D79" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="1" t="n">
+      <c r="E79" s="1">
         <v>0.375</v>
       </c>
       <c r="F79" s="2"/>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="b">
@@ -3933,35 +4004,31 @@
       <c r="I79" t="s">
         <v>149</v>
       </c>
-      <c r="J79"/>
       <c r="K79" t="b">
         <v>1</v>
       </c>
-      <c r="L79"/>
-      <c r="M79" t="n">
+      <c r="M79">
         <v>50</v>
       </c>
-      <c r="N79"/>
-      <c r="O79" t="n">
+      <c r="O79">
         <v>587030809</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:15">
+      <c r="A80">
         <v>35731884</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
-      <c r="C80"/>
       <c r="D80" t="s">
         <v>142</v>
       </c>
-      <c r="E80" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E80" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F80" s="2"/>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="b">
@@ -3970,21 +4037,18 @@
       <c r="I80" t="s">
         <v>149</v>
       </c>
-      <c r="J80"/>
       <c r="K80" t="b">
         <v>1</v>
       </c>
-      <c r="L80"/>
-      <c r="M80" t="n">
+      <c r="M80">
         <v>50</v>
       </c>
-      <c r="N80"/>
-      <c r="O80" t="n">
+      <c r="O80">
         <v>529462304</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:15">
+      <c r="A81">
         <v>3582</v>
       </c>
       <c r="B81" t="s">
@@ -3996,11 +4060,11 @@
       <c r="D81" t="s">
         <v>140</v>
       </c>
-      <c r="E81" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E81" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F81" s="2"/>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>8151970</v>
       </c>
       <c r="H81" t="b">
@@ -4009,21 +4073,18 @@
       <c r="I81" t="s">
         <v>149</v>
       </c>
-      <c r="J81"/>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81"/>
-      <c r="M81" t="n">
-        <v>25</v>
-      </c>
-      <c r="N81"/>
+      <c r="M81">
+        <v>25</v>
+      </c>
       <c r="O81" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:15">
+      <c r="A82">
         <v>6496</v>
       </c>
       <c r="B82" t="s">
@@ -4035,11 +4096,11 @@
       <c r="D82" t="s">
         <v>140</v>
       </c>
-      <c r="E82" s="1" t="n">
-        <v>0.458333333333333</v>
+      <c r="E82" s="1">
+        <v>0.45833333333333298</v>
       </c>
       <c r="F82" s="2"/>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>7555551</v>
       </c>
       <c r="H82" t="b">
@@ -4048,21 +4109,18 @@
       <c r="I82" t="s">
         <v>149</v>
       </c>
-      <c r="J82"/>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82"/>
-      <c r="M82" t="n">
-        <v>25</v>
-      </c>
-      <c r="N82"/>
+      <c r="M82">
+        <v>25</v>
+      </c>
       <c r="O82" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:15">
+      <c r="A83">
         <v>7097</v>
       </c>
       <c r="B83" t="s">
@@ -4074,11 +4132,11 @@
       <c r="D83" t="s">
         <v>141</v>
       </c>
-      <c r="E83" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E83" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="b">
@@ -4087,35 +4145,31 @@
       <c r="I83" t="s">
         <v>150</v>
       </c>
-      <c r="J83"/>
       <c r="K83" t="b">
         <v>1</v>
       </c>
-      <c r="L83"/>
-      <c r="M83" t="n">
+      <c r="M83">
         <v>35</v>
       </c>
-      <c r="N83"/>
       <c r="O83" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:15">
+      <c r="A84">
         <v>302315015</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C84"/>
       <c r="D84" t="s">
         <v>142</v>
       </c>
-      <c r="E84" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E84" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="b">
@@ -4124,21 +4178,18 @@
       <c r="I84" t="s">
         <v>150</v>
       </c>
-      <c r="J84"/>
       <c r="K84" t="b">
         <v>1</v>
       </c>
-      <c r="L84"/>
-      <c r="M84" t="n">
+      <c r="M84">
         <v>40</v>
       </c>
-      <c r="N84"/>
-      <c r="O84" t="n">
+      <c r="O84">
         <v>524558722</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:15">
+      <c r="A85">
         <v>5348</v>
       </c>
       <c r="B85" t="s">
@@ -4150,11 +4201,11 @@
       <c r="D85" t="s">
         <v>140</v>
       </c>
-      <c r="E85" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E85" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F85" s="2"/>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>1412539</v>
       </c>
       <c r="H85" t="b">
@@ -4163,21 +4214,18 @@
       <c r="I85" t="s">
         <v>149</v>
       </c>
-      <c r="J85"/>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85"/>
-      <c r="M85" t="n">
-        <v>25</v>
-      </c>
-      <c r="N85"/>
-      <c r="O85" t="n">
+      <c r="M85">
+        <v>25</v>
+      </c>
+      <c r="O85">
         <v>533383192</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:15">
+      <c r="A86">
         <v>4214</v>
       </c>
       <c r="B86" t="s">
@@ -4189,11 +4237,11 @@
       <c r="D86" t="s">
         <v>140</v>
       </c>
-      <c r="E86" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E86" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F86" s="2"/>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>7200994</v>
       </c>
       <c r="H86" t="b">
@@ -4202,35 +4250,31 @@
       <c r="I86" t="s">
         <v>149</v>
       </c>
-      <c r="J86"/>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86"/>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86"/>
+      <c r="M86">
+        <v>0</v>
+      </c>
       <c r="O86" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:15">
+      <c r="A87">
         <v>32370520</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
       </c>
-      <c r="C87"/>
       <c r="D87" t="s">
         <v>142</v>
       </c>
-      <c r="E87" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E87" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="b">
@@ -4239,35 +4283,31 @@
       <c r="I87" t="s">
         <v>149</v>
       </c>
-      <c r="J87"/>
       <c r="K87" t="b">
         <v>1</v>
       </c>
-      <c r="L87"/>
-      <c r="M87" t="n">
+      <c r="M87">
         <v>50</v>
       </c>
-      <c r="N87"/>
-      <c r="O87" t="n">
+      <c r="O87">
         <v>548005427</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:15">
+      <c r="A88">
         <v>52674090</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
       </c>
-      <c r="C88"/>
       <c r="D88" t="s">
         <v>142</v>
       </c>
-      <c r="E88" s="1" t="n">
+      <c r="E88" s="1">
         <v>0.375</v>
       </c>
       <c r="F88" s="2"/>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="b">
@@ -4276,21 +4316,18 @@
       <c r="I88" t="s">
         <v>149</v>
       </c>
-      <c r="J88"/>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88"/>
-      <c r="M88" t="n">
+      <c r="M88">
         <v>40</v>
       </c>
-      <c r="N88"/>
-      <c r="O88" t="n">
+      <c r="O88">
         <v>543295075</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:15">
+      <c r="A89">
         <v>4239</v>
       </c>
       <c r="B89" t="s">
@@ -4302,11 +4339,11 @@
       <c r="D89" t="s">
         <v>140</v>
       </c>
-      <c r="E89" s="1" t="n">
+      <c r="E89" s="1">
         <v>0.4375</v>
       </c>
       <c r="F89" s="2"/>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>2071155</v>
       </c>
       <c r="H89" t="b">
@@ -4315,21 +4352,18 @@
       <c r="I89" t="s">
         <v>149</v>
       </c>
-      <c r="J89"/>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89"/>
-      <c r="M89" t="n">
-        <v>25</v>
-      </c>
-      <c r="N89"/>
-      <c r="O89" t="n">
+      <c r="M89">
+        <v>25</v>
+      </c>
+      <c r="O89">
         <v>585707409</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:15">
+      <c r="A90">
         <v>7021</v>
       </c>
       <c r="B90" t="s">
@@ -4341,11 +4375,11 @@
       <c r="D90" t="s">
         <v>141</v>
       </c>
-      <c r="E90" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E90" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F90" s="2"/>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>2071406</v>
       </c>
       <c r="H90" t="b">
@@ -4354,21 +4388,18 @@
       <c r="I90" t="s">
         <v>150</v>
       </c>
-      <c r="J90"/>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90"/>
-      <c r="M90" t="n">
-        <v>25</v>
-      </c>
-      <c r="N90"/>
+      <c r="M90">
+        <v>25</v>
+      </c>
       <c r="O90" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:15">
+      <c r="A91">
         <v>1506</v>
       </c>
       <c r="B91" t="s">
@@ -4380,11 +4411,11 @@
       <c r="D91" t="s">
         <v>141</v>
       </c>
-      <c r="E91" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E91" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F91" s="2"/>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>2145100</v>
       </c>
       <c r="H91" t="b">
@@ -4393,21 +4424,18 @@
       <c r="I91" t="s">
         <v>149</v>
       </c>
-      <c r="J91"/>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91"/>
-      <c r="M91" t="n">
-        <v>25</v>
-      </c>
-      <c r="N91"/>
+      <c r="M91">
+        <v>25</v>
+      </c>
       <c r="O91" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:15">
+      <c r="A92">
         <v>3403</v>
       </c>
       <c r="B92" t="s">
@@ -4419,11 +4447,11 @@
       <c r="D92" t="s">
         <v>142</v>
       </c>
-      <c r="E92" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E92" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F92" s="2"/>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>7625446</v>
       </c>
       <c r="H92" t="b">
@@ -4432,21 +4460,18 @@
       <c r="I92" t="s">
         <v>149</v>
       </c>
-      <c r="J92"/>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92"/>
-      <c r="M92" t="n">
-        <v>25</v>
-      </c>
-      <c r="N92"/>
+      <c r="M92">
+        <v>25</v>
+      </c>
       <c r="O92" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:15">
+      <c r="A93">
         <v>6050</v>
       </c>
       <c r="B93" t="s">
@@ -4458,11 +4483,11 @@
       <c r="D93" t="s">
         <v>142</v>
       </c>
-      <c r="E93" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E93" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F93" s="2"/>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>2071523</v>
       </c>
       <c r="H93" t="b">
@@ -4471,21 +4496,18 @@
       <c r="I93" t="s">
         <v>150</v>
       </c>
-      <c r="J93"/>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93"/>
-      <c r="M93" t="n">
-        <v>25</v>
-      </c>
-      <c r="N93"/>
+      <c r="M93">
+        <v>25</v>
+      </c>
       <c r="O93" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:15">
+      <c r="A94">
         <v>3054</v>
       </c>
       <c r="B94" t="s">
@@ -4497,11 +4519,11 @@
       <c r="D94" t="s">
         <v>140</v>
       </c>
-      <c r="E94" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E94" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F94" s="2"/>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>8007163</v>
       </c>
       <c r="H94" t="b">
@@ -4510,21 +4532,18 @@
       <c r="I94" t="s">
         <v>149</v>
       </c>
-      <c r="J94"/>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94"/>
-      <c r="M94" t="n">
-        <v>25</v>
-      </c>
-      <c r="N94"/>
+      <c r="M94">
+        <v>25</v>
+      </c>
       <c r="O94" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:15">
+      <c r="A95">
         <v>6369</v>
       </c>
       <c r="B95" t="s">
@@ -4536,11 +4555,11 @@
       <c r="D95" t="s">
         <v>140</v>
       </c>
-      <c r="E95" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E95" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F95" s="2"/>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>2121003</v>
       </c>
       <c r="H95" t="b">
@@ -4549,35 +4568,31 @@
       <c r="I95" t="s">
         <v>149</v>
       </c>
-      <c r="J95"/>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95"/>
-      <c r="M95" t="n">
-        <v>25</v>
-      </c>
-      <c r="N95"/>
+      <c r="M95">
+        <v>25</v>
+      </c>
       <c r="O95" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:15">
+      <c r="A96">
         <v>56528482</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="C96"/>
       <c r="D96" t="s">
         <v>141</v>
       </c>
-      <c r="E96" s="1" t="n">
+      <c r="E96" s="1">
         <v>0.375</v>
       </c>
       <c r="F96" s="2"/>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="b">
@@ -4586,21 +4601,18 @@
       <c r="I96" t="s">
         <v>149</v>
       </c>
-      <c r="J96"/>
       <c r="K96" t="b">
         <v>0</v>
       </c>
-      <c r="L96"/>
-      <c r="M96" t="n">
+      <c r="M96">
         <v>40</v>
       </c>
-      <c r="N96"/>
-      <c r="O96" t="n">
+      <c r="O96">
         <v>503147001</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:15">
+      <c r="A97">
         <v>4545</v>
       </c>
       <c r="B97" t="s">
@@ -4612,11 +4624,11 @@
       <c r="D97" t="s">
         <v>141</v>
       </c>
-      <c r="E97" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E97" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F97" s="2"/>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>2071419</v>
       </c>
       <c r="H97" t="b">
@@ -4625,21 +4637,18 @@
       <c r="I97" t="s">
         <v>150</v>
       </c>
-      <c r="J97"/>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97"/>
-      <c r="M97" t="n">
-        <v>25</v>
-      </c>
-      <c r="N97"/>
+      <c r="M97">
+        <v>25</v>
+      </c>
       <c r="O97" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:15">
+      <c r="A98">
         <v>7190</v>
       </c>
       <c r="B98" t="s">
@@ -4651,11 +4660,11 @@
       <c r="D98" t="s">
         <v>141</v>
       </c>
-      <c r="E98" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E98" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F98" s="2"/>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>2145091</v>
       </c>
       <c r="H98" t="b">
@@ -4664,21 +4673,18 @@
       <c r="I98" t="s">
         <v>149</v>
       </c>
-      <c r="J98"/>
       <c r="K98" t="b">
         <v>0</v>
       </c>
-      <c r="L98"/>
-      <c r="M98" t="n">
-        <v>25</v>
-      </c>
-      <c r="N98"/>
+      <c r="M98">
+        <v>25</v>
+      </c>
       <c r="O98" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:15">
+      <c r="A99">
         <v>7176</v>
       </c>
       <c r="B99" t="s">
@@ -4690,11 +4696,11 @@
       <c r="D99" t="s">
         <v>141</v>
       </c>
-      <c r="E99" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E99" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F99" s="2"/>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>2221771</v>
       </c>
       <c r="H99" t="b">
@@ -4703,21 +4709,18 @@
       <c r="I99" t="s">
         <v>150</v>
       </c>
-      <c r="J99"/>
       <c r="K99" t="b">
         <v>0</v>
       </c>
-      <c r="L99"/>
-      <c r="M99" t="n">
-        <v>25</v>
-      </c>
-      <c r="N99"/>
+      <c r="M99">
+        <v>25</v>
+      </c>
       <c r="O99" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:15">
+      <c r="A100">
         <v>2146</v>
       </c>
       <c r="B100" t="s">
@@ -4729,11 +4732,11 @@
       <c r="D100" t="s">
         <v>141</v>
       </c>
-      <c r="E100" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E100" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F100" s="2"/>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>2071441</v>
       </c>
       <c r="H100" t="b">
@@ -4742,21 +4745,18 @@
       <c r="I100" t="s">
         <v>149</v>
       </c>
-      <c r="J100"/>
       <c r="K100" t="b">
         <v>0</v>
       </c>
-      <c r="L100"/>
-      <c r="M100" t="n">
-        <v>25</v>
-      </c>
-      <c r="N100"/>
+      <c r="M100">
+        <v>25</v>
+      </c>
       <c r="O100" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:15">
+      <c r="A101">
         <v>4410</v>
       </c>
       <c r="B101" t="s">
@@ -4768,11 +4768,11 @@
       <c r="D101" t="s">
         <v>142</v>
       </c>
-      <c r="E101" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E101" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F101" s="2"/>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>2071182</v>
       </c>
       <c r="H101" t="b">
@@ -4781,21 +4781,18 @@
       <c r="I101" t="s">
         <v>150</v>
       </c>
-      <c r="J101"/>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101"/>
-      <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101"/>
+      <c r="M101">
+        <v>0</v>
+      </c>
       <c r="O101" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:15">
+      <c r="A102">
         <v>7177</v>
       </c>
       <c r="B102" t="s">
@@ -4807,11 +4804,11 @@
       <c r="D102" t="s">
         <v>140</v>
       </c>
-      <c r="E102" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E102" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F102" s="2"/>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>8501485</v>
       </c>
       <c r="H102" t="b">
@@ -4820,21 +4817,18 @@
       <c r="I102" t="s">
         <v>149</v>
       </c>
-      <c r="J102"/>
       <c r="K102" t="b">
         <v>0</v>
       </c>
-      <c r="L102"/>
-      <c r="M102" t="n">
-        <v>25</v>
-      </c>
-      <c r="N102"/>
+      <c r="M102">
+        <v>25</v>
+      </c>
       <c r="O102" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:15">
+      <c r="A103">
         <v>4409</v>
       </c>
       <c r="B103" t="s">
@@ -4846,11 +4840,11 @@
       <c r="D103" t="s">
         <v>142</v>
       </c>
-      <c r="E103" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E103" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F103" s="2"/>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>2071180</v>
       </c>
       <c r="H103" t="b">
@@ -4859,21 +4853,18 @@
       <c r="I103" t="s">
         <v>149</v>
       </c>
-      <c r="J103"/>
       <c r="K103" t="b">
         <v>0</v>
       </c>
-      <c r="L103"/>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103"/>
+      <c r="M103">
+        <v>0</v>
+      </c>
       <c r="O103" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:15">
+      <c r="A104">
         <v>3336</v>
       </c>
       <c r="B104" t="s">
@@ -4885,11 +4876,11 @@
       <c r="D104" t="s">
         <v>141</v>
       </c>
-      <c r="E104" s="1" t="n">
+      <c r="E104" s="1">
         <v>0.375</v>
       </c>
       <c r="F104" s="2"/>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>9933838</v>
       </c>
       <c r="H104" t="b">
@@ -4898,35 +4889,31 @@
       <c r="I104" t="s">
         <v>149</v>
       </c>
-      <c r="J104"/>
       <c r="K104" t="b">
         <v>0</v>
       </c>
-      <c r="L104"/>
-      <c r="M104" t="n">
-        <v>25</v>
-      </c>
-      <c r="N104"/>
+      <c r="M104">
+        <v>25</v>
+      </c>
       <c r="O104" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:15">
+      <c r="A105">
         <v>37552882</v>
       </c>
       <c r="B105" t="s">
         <v>105</v>
       </c>
-      <c r="C105"/>
       <c r="D105" t="s">
         <v>143</v>
       </c>
-      <c r="E105" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E105" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F105" s="2"/>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="b">
@@ -4935,21 +4922,18 @@
       <c r="I105" t="s">
         <v>150</v>
       </c>
-      <c r="J105"/>
       <c r="K105" t="b">
         <v>1</v>
       </c>
-      <c r="L105"/>
-      <c r="M105" t="n">
+      <c r="M105">
         <v>50</v>
       </c>
-      <c r="N105"/>
-      <c r="O105" t="n">
+      <c r="O105">
         <v>525552204</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:15">
+      <c r="A106">
         <v>4000</v>
       </c>
       <c r="B106" t="s">
@@ -4961,11 +4945,11 @@
       <c r="D106" t="s">
         <v>140</v>
       </c>
-      <c r="E106" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E106" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F106" s="2"/>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>1212597</v>
       </c>
       <c r="H106" t="b">
@@ -4974,21 +4958,18 @@
       <c r="I106" t="s">
         <v>149</v>
       </c>
-      <c r="J106"/>
       <c r="K106" t="b">
         <v>0</v>
       </c>
-      <c r="L106"/>
-      <c r="M106" t="n">
-        <v>25</v>
-      </c>
-      <c r="N106"/>
+      <c r="M106">
+        <v>25</v>
+      </c>
       <c r="O106" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:15">
+      <c r="A107">
         <v>7079</v>
       </c>
       <c r="B107" t="s">
@@ -5000,11 +4981,11 @@
       <c r="D107" t="s">
         <v>143</v>
       </c>
-      <c r="E107" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E107" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F107" s="2"/>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="b">
@@ -5013,21 +4994,18 @@
       <c r="I107" t="s">
         <v>150</v>
       </c>
-      <c r="J107"/>
       <c r="K107" t="b">
         <v>1</v>
       </c>
-      <c r="L107"/>
-      <c r="M107" t="n">
+      <c r="M107">
         <v>35</v>
       </c>
-      <c r="N107"/>
       <c r="O107" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:15">
+      <c r="A108">
         <v>7078</v>
       </c>
       <c r="B108" t="s">
@@ -5039,11 +5017,11 @@
       <c r="D108" t="s">
         <v>143</v>
       </c>
-      <c r="E108" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E108" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F108" s="2"/>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="b">
@@ -5052,21 +5030,18 @@
       <c r="I108" t="s">
         <v>149</v>
       </c>
-      <c r="J108"/>
       <c r="K108" t="b">
         <v>1</v>
       </c>
-      <c r="L108"/>
-      <c r="M108" t="n">
+      <c r="M108">
         <v>35</v>
       </c>
-      <c r="N108"/>
       <c r="O108" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:15">
+      <c r="A109">
         <v>6765</v>
       </c>
       <c r="B109" t="s">
@@ -5078,11 +5053,11 @@
       <c r="D109" t="s">
         <v>140</v>
       </c>
-      <c r="E109" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E109" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F109" s="2"/>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>2071700</v>
       </c>
       <c r="H109" t="b">
@@ -5091,21 +5066,18 @@
       <c r="I109" t="s">
         <v>149</v>
       </c>
-      <c r="J109"/>
       <c r="K109" t="b">
         <v>0</v>
       </c>
-      <c r="L109"/>
-      <c r="M109" t="n">
-        <v>25</v>
-      </c>
-      <c r="N109"/>
+      <c r="M109">
+        <v>25</v>
+      </c>
       <c r="O109" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:15">
+      <c r="A110">
         <v>7179</v>
       </c>
       <c r="B110" t="s">
@@ -5117,11 +5089,11 @@
       <c r="D110" t="s">
         <v>143</v>
       </c>
-      <c r="E110" s="1" t="n">
-        <v>0.395833333333333</v>
+      <c r="E110" s="1">
+        <v>0.39583333333333298</v>
       </c>
       <c r="F110" s="2"/>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>2107619</v>
       </c>
       <c r="H110" t="b">
@@ -5130,21 +5102,18 @@
       <c r="I110" t="s">
         <v>149</v>
       </c>
-      <c r="J110"/>
       <c r="K110" t="b">
         <v>0</v>
       </c>
-      <c r="L110"/>
-      <c r="M110" t="n">
-        <v>25</v>
-      </c>
-      <c r="N110"/>
+      <c r="M110">
+        <v>25</v>
+      </c>
       <c r="O110" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:15">
+      <c r="A111">
         <v>4196</v>
       </c>
       <c r="B111" t="s">
@@ -5156,11 +5125,11 @@
       <c r="D111" t="s">
         <v>141</v>
       </c>
-      <c r="E111" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E111" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F111" s="2"/>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>1001706</v>
       </c>
       <c r="H111" t="b">
@@ -5169,21 +5138,18 @@
       <c r="I111" t="s">
         <v>150</v>
       </c>
-      <c r="J111"/>
       <c r="K111" t="b">
         <v>0</v>
       </c>
-      <c r="L111"/>
-      <c r="M111" t="n">
-        <v>25</v>
-      </c>
-      <c r="N111"/>
+      <c r="M111">
+        <v>25</v>
+      </c>
       <c r="O111" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:15">
+      <c r="A112">
         <v>3145</v>
       </c>
       <c r="B112" t="s">
@@ -5195,11 +5161,11 @@
       <c r="D112" t="s">
         <v>142</v>
       </c>
-      <c r="E112" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E112" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F112" s="2"/>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>2071057</v>
       </c>
       <c r="H112" t="b">
@@ -5208,21 +5174,18 @@
       <c r="I112" t="s">
         <v>149</v>
       </c>
-      <c r="J112"/>
       <c r="K112" t="b">
         <v>0</v>
       </c>
-      <c r="L112"/>
-      <c r="M112" t="n">
-        <v>25</v>
-      </c>
-      <c r="N112"/>
+      <c r="M112">
+        <v>25</v>
+      </c>
       <c r="O112" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:15">
+      <c r="A113">
         <v>3446</v>
       </c>
       <c r="B113" t="s">
@@ -5234,11 +5197,11 @@
       <c r="D113" t="s">
         <v>142</v>
       </c>
-      <c r="E113" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E113" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F113" s="2"/>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>2083336</v>
       </c>
       <c r="H113" t="b">
@@ -5247,35 +5210,31 @@
       <c r="I113" t="s">
         <v>149</v>
       </c>
-      <c r="J113"/>
       <c r="K113" t="b">
         <v>0</v>
       </c>
-      <c r="L113"/>
-      <c r="M113" t="n">
-        <v>25</v>
-      </c>
-      <c r="N113"/>
+      <c r="M113">
+        <v>25</v>
+      </c>
       <c r="O113" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:15">
+      <c r="A114">
         <v>25530528</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
       </c>
-      <c r="C114"/>
       <c r="D114" t="s">
         <v>142</v>
       </c>
-      <c r="E114" s="1" t="n">
+      <c r="E114" s="1">
         <v>0.375</v>
       </c>
       <c r="F114" s="2"/>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="b">
@@ -5284,21 +5243,18 @@
       <c r="I114" t="s">
         <v>149</v>
       </c>
-      <c r="J114"/>
       <c r="K114" t="b">
         <v>1</v>
       </c>
-      <c r="L114"/>
-      <c r="M114" t="n">
+      <c r="M114">
         <v>50</v>
       </c>
-      <c r="N114"/>
-      <c r="O114" t="n">
+      <c r="O114">
         <v>546711183</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:15">
+      <c r="A115">
         <v>1782</v>
       </c>
       <c r="B115" t="s">
@@ -5310,11 +5266,11 @@
       <c r="D115" t="s">
         <v>140</v>
       </c>
-      <c r="E115" s="1" t="n">
+      <c r="E115" s="1">
         <v>0.375</v>
       </c>
       <c r="F115" s="2"/>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>2071054</v>
       </c>
       <c r="H115" t="b">
@@ -5323,21 +5279,18 @@
       <c r="I115" t="s">
         <v>150</v>
       </c>
-      <c r="J115"/>
       <c r="K115" t="b">
         <v>0</v>
       </c>
-      <c r="L115"/>
-      <c r="M115" t="n">
-        <v>25</v>
-      </c>
-      <c r="N115"/>
+      <c r="M115">
+        <v>25</v>
+      </c>
       <c r="O115" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:15">
+      <c r="A116">
         <v>2503</v>
       </c>
       <c r="B116" t="s">
@@ -5349,11 +5302,11 @@
       <c r="D116" t="s">
         <v>141</v>
       </c>
-      <c r="E116" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E116" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F116" s="2"/>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>214532</v>
       </c>
       <c r="H116" t="b">
@@ -5362,21 +5315,18 @@
       <c r="I116" t="s">
         <v>149</v>
       </c>
-      <c r="J116"/>
       <c r="K116" t="b">
         <v>0</v>
       </c>
-      <c r="L116"/>
-      <c r="M116" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116"/>
+      <c r="M116">
+        <v>0</v>
+      </c>
       <c r="O116" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:15">
+      <c r="A117">
         <v>6744</v>
       </c>
       <c r="B117" t="s">
@@ -5388,12 +5338,12 @@
       <c r="D117" t="s">
         <v>143</v>
       </c>
-      <c r="E117" s="1" t="n">
+      <c r="E117" s="1">
         <v>0.375</v>
       </c>
       <c r="F117" s="2"/>
-      <c r="G117" t="n">
-        <v>0</v>
+      <c r="G117">
+        <v>2071510</v>
       </c>
       <c r="H117" t="b">
         <v>1</v>
@@ -5401,23 +5351,21 @@
       <c r="I117" t="s">
         <v>149</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>2071510</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
       </c>
-      <c r="L117"/>
-      <c r="M117" t="n">
-        <v>25</v>
-      </c>
-      <c r="N117"/>
+      <c r="M117">
+        <v>25</v>
+      </c>
       <c r="O117" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:15">
+      <c r="A118">
         <v>5858</v>
       </c>
       <c r="B118" t="s">
@@ -5429,11 +5377,11 @@
       <c r="D118" t="s">
         <v>141</v>
       </c>
-      <c r="E118" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E118" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F118" s="2"/>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>2071293</v>
       </c>
       <c r="H118" t="b">
@@ -5442,21 +5390,18 @@
       <c r="I118" t="s">
         <v>150</v>
       </c>
-      <c r="J118"/>
       <c r="K118" t="b">
         <v>0</v>
       </c>
-      <c r="L118"/>
-      <c r="M118" t="n">
-        <v>25</v>
-      </c>
-      <c r="N118"/>
+      <c r="M118">
+        <v>25</v>
+      </c>
       <c r="O118" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:15">
+      <c r="A119">
         <v>3059</v>
       </c>
       <c r="B119" t="s">
@@ -5468,11 +5413,11 @@
       <c r="D119" t="s">
         <v>141</v>
       </c>
-      <c r="E119" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E119" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F119" s="2"/>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>590917</v>
       </c>
       <c r="H119" t="b">
@@ -5481,21 +5426,18 @@
       <c r="I119" t="s">
         <v>149</v>
       </c>
-      <c r="J119"/>
       <c r="K119" t="b">
         <v>0</v>
       </c>
-      <c r="L119"/>
-      <c r="M119" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119"/>
+      <c r="M119">
+        <v>0</v>
+      </c>
       <c r="O119" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:15">
+      <c r="A120">
         <v>6326</v>
       </c>
       <c r="B120" t="s">
@@ -5507,11 +5449,11 @@
       <c r="D120" t="s">
         <v>140</v>
       </c>
-      <c r="E120" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E120" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F120" s="2"/>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>2083337</v>
       </c>
       <c r="H120" t="b">
@@ -5520,21 +5462,18 @@
       <c r="I120" t="s">
         <v>149</v>
       </c>
-      <c r="J120"/>
       <c r="K120" t="b">
         <v>0</v>
       </c>
-      <c r="L120"/>
-      <c r="M120" t="n">
-        <v>25</v>
-      </c>
-      <c r="N120"/>
-      <c r="O120" t="n">
+      <c r="M120">
+        <v>25</v>
+      </c>
+      <c r="O120">
         <v>545255546</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:15">
+      <c r="A121">
         <v>5224</v>
       </c>
       <c r="B121" t="s">
@@ -5546,11 +5485,11 @@
       <c r="D121" t="s">
         <v>141</v>
       </c>
-      <c r="E121" s="1" t="n">
+      <c r="E121" s="1">
         <v>0.375</v>
       </c>
       <c r="F121" s="2"/>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>2085133</v>
       </c>
       <c r="H121" t="b">
@@ -5559,21 +5498,18 @@
       <c r="I121" t="s">
         <v>149</v>
       </c>
-      <c r="J121"/>
       <c r="K121" t="b">
         <v>0</v>
       </c>
-      <c r="L121"/>
-      <c r="M121" t="n">
-        <v>25</v>
-      </c>
-      <c r="N121"/>
-      <c r="O121" t="n">
+      <c r="M121">
+        <v>25</v>
+      </c>
+      <c r="O121">
         <v>545508763</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:15">
+      <c r="A122">
         <v>822</v>
       </c>
       <c r="B122" t="s">
@@ -5585,11 +5521,11 @@
       <c r="D122" t="s">
         <v>141</v>
       </c>
-      <c r="E122" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E122" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F122" s="2"/>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>2071070</v>
       </c>
       <c r="H122" t="b">
@@ -5598,35 +5534,31 @@
       <c r="I122" t="s">
         <v>149</v>
       </c>
-      <c r="J122"/>
       <c r="K122" t="b">
         <v>0</v>
       </c>
-      <c r="L122"/>
-      <c r="M122" t="n">
-        <v>25</v>
-      </c>
-      <c r="N122"/>
+      <c r="M122">
+        <v>25</v>
+      </c>
       <c r="O122" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:15">
+      <c r="A123">
         <v>24219149</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
       </c>
-      <c r="C123"/>
       <c r="D123" t="s">
         <v>141</v>
       </c>
-      <c r="E123" s="1" t="n">
+      <c r="E123" s="1">
         <v>0.375</v>
       </c>
       <c r="F123" s="2"/>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>0</v>
       </c>
       <c r="H123" t="b">
@@ -5635,21 +5567,18 @@
       <c r="I123" t="s">
         <v>149</v>
       </c>
-      <c r="J123"/>
       <c r="K123" t="b">
         <v>0</v>
       </c>
-      <c r="L123"/>
-      <c r="M123" t="n">
+      <c r="M123">
         <v>40</v>
       </c>
-      <c r="N123"/>
-      <c r="O123" t="n">
+      <c r="O123">
         <v>546644385</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:15">
+      <c r="A124">
         <v>7167</v>
       </c>
       <c r="B124" t="s">
@@ -5661,11 +5590,11 @@
       <c r="D124" t="s">
         <v>143</v>
       </c>
-      <c r="E124" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="E124" s="1">
+        <v>0.41666666666666702</v>
       </c>
       <c r="F124" s="2"/>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>0</v>
       </c>
       <c r="H124" t="b">
@@ -5674,35 +5603,31 @@
       <c r="I124" t="s">
         <v>150</v>
       </c>
-      <c r="J124"/>
       <c r="K124" t="b">
         <v>1</v>
       </c>
-      <c r="L124"/>
-      <c r="M124" t="n">
+      <c r="M124">
         <v>35</v>
       </c>
-      <c r="N124"/>
       <c r="O124" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:15">
+      <c r="A125">
         <v>22512727</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
-      <c r="C125"/>
       <c r="D125" t="s">
         <v>143</v>
       </c>
-      <c r="E125" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E125" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F125" s="2"/>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>0</v>
       </c>
       <c r="H125" t="b">
@@ -5711,21 +5636,18 @@
       <c r="I125" t="s">
         <v>150</v>
       </c>
-      <c r="J125"/>
       <c r="K125" t="b">
         <v>0</v>
       </c>
-      <c r="L125"/>
-      <c r="M125" t="n">
+      <c r="M125">
         <v>40</v>
       </c>
-      <c r="N125"/>
-      <c r="O125" t="n">
+      <c r="O125">
         <v>543250080</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:15">
+      <c r="A126">
         <v>7070</v>
       </c>
       <c r="B126" t="s">
@@ -5737,11 +5659,11 @@
       <c r="D126" t="s">
         <v>143</v>
       </c>
-      <c r="E126" s="1" t="n">
-        <v>0.354166666666667</v>
+      <c r="E126" s="1">
+        <v>0.35416666666666702</v>
       </c>
       <c r="F126" s="2"/>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>2138973</v>
       </c>
       <c r="H126" t="b">
@@ -5750,20 +5672,1862 @@
       <c r="I126" t="s">
         <v>149</v>
       </c>
-      <c r="J126"/>
       <c r="K126" t="b">
         <v>0</v>
       </c>
-      <c r="L126"/>
-      <c r="M126" t="n">
-        <v>25</v>
-      </c>
-      <c r="N126"/>
-      <c r="O126" t="n">
+      <c r="M126">
+        <v>25</v>
+      </c>
+      <c r="O126">
         <v>546865246</v>
       </c>
     </row>
+    <row r="127" spans="1:15">
+      <c r="A127">
+        <v>3715</v>
+      </c>
+      <c r="B127" t="s">
+        <v>235</v>
+      </c>
+      <c r="C127" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127" t="s">
+        <v>236</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127">
+        <v>2145078</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>149</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>30</v>
+      </c>
+      <c r="O127" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128">
+        <v>313642597</v>
+      </c>
+      <c r="B128" t="s">
+        <v>238</v>
+      </c>
+      <c r="D128" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>149</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>60</v>
+      </c>
+      <c r="O128">
+        <v>528542714</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129">
+        <v>2797</v>
+      </c>
+      <c r="B129" t="s">
+        <v>240</v>
+      </c>
+      <c r="C129" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" t="s">
+        <v>236</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129">
+        <v>1033316</v>
+      </c>
+      <c r="H129" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>149</v>
+      </c>
+      <c r="K129" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>30</v>
+      </c>
+      <c r="O129">
+        <v>524238718</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130">
+        <v>331432955</v>
+      </c>
+      <c r="B130" t="s">
+        <v>241</v>
+      </c>
+      <c r="D130" t="s">
+        <v>242</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130" t="s">
+        <v>149</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>60</v>
+      </c>
+      <c r="O130">
+        <v>543060570</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131">
+        <v>27375955</v>
+      </c>
+      <c r="B131" t="s">
+        <v>243</v>
+      </c>
+      <c r="D131" t="s">
+        <v>239</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>149</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>50</v>
+      </c>
+      <c r="O131">
+        <v>543060570</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132">
+        <v>4603</v>
+      </c>
+      <c r="B132" t="s">
+        <v>244</v>
+      </c>
+      <c r="C132" t="s">
+        <v>128</v>
+      </c>
+      <c r="D132" t="s">
+        <v>239</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132">
+        <v>2071084</v>
+      </c>
+      <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>149</v>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>30</v>
+      </c>
+      <c r="O132" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133">
+        <v>3137</v>
+      </c>
+      <c r="B133" t="s">
+        <v>246</v>
+      </c>
+      <c r="C133" t="s">
+        <v>128</v>
+      </c>
+      <c r="D133" t="s">
+        <v>239</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133">
+        <v>2801368</v>
+      </c>
+      <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>149</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>30</v>
+      </c>
+      <c r="O133" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134">
+        <v>2437</v>
+      </c>
+      <c r="B134" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" t="s">
+        <v>128</v>
+      </c>
+      <c r="D134" t="s">
+        <v>249</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134">
+        <v>2006440</v>
+      </c>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>150</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>30</v>
+      </c>
+      <c r="O134" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135">
+        <v>549</v>
+      </c>
+      <c r="B135" t="s">
+        <v>251</v>
+      </c>
+      <c r="C135" t="s">
+        <v>132</v>
+      </c>
+      <c r="D135" t="s">
+        <v>236</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135">
+        <v>2121786</v>
+      </c>
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>149</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>30</v>
+      </c>
+      <c r="O135" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136">
+        <v>7137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>253</v>
+      </c>
+      <c r="C136" t="s">
+        <v>130</v>
+      </c>
+      <c r="D136" t="s">
+        <v>242</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136">
+        <v>2069557</v>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>149</v>
+      </c>
+      <c r="J136" t="s">
+        <v>254</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>30</v>
+      </c>
+      <c r="O136" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137">
+        <v>3198</v>
+      </c>
+      <c r="B137" t="s">
+        <v>255</v>
+      </c>
+      <c r="C137" t="s">
+        <v>134</v>
+      </c>
+      <c r="D137" t="s">
+        <v>239</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137">
+        <v>2071549</v>
+      </c>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="s">
+        <v>149</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>30</v>
+      </c>
+      <c r="O137" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138">
+        <v>2240</v>
+      </c>
+      <c r="B138" t="s">
+        <v>257</v>
+      </c>
+      <c r="C138" t="s">
+        <v>128</v>
+      </c>
+      <c r="D138" t="s">
+        <v>236</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138">
+        <v>2071065</v>
+      </c>
+      <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>149</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>30</v>
+      </c>
+      <c r="O138" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>259</v>
+      </c>
+      <c r="C139" t="s">
+        <v>128</v>
+      </c>
+      <c r="D139" t="s">
+        <v>260</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139">
+        <v>2071257</v>
+      </c>
+      <c r="H139" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>149</v>
+      </c>
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>30</v>
+      </c>
+      <c r="O139" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140">
+        <v>6117</v>
+      </c>
+      <c r="B140" t="s">
+        <v>262</v>
+      </c>
+      <c r="C140" t="s">
+        <v>128</v>
+      </c>
+      <c r="D140" t="s">
+        <v>242</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140">
+        <v>2071641</v>
+      </c>
+      <c r="H140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>149</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>30</v>
+      </c>
+      <c r="O140" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141">
+        <v>3364</v>
+      </c>
+      <c r="B141" t="s">
+        <v>264</v>
+      </c>
+      <c r="C141" t="s">
+        <v>136</v>
+      </c>
+      <c r="D141" t="s">
+        <v>265</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141">
+        <v>2071606</v>
+      </c>
+      <c r="H141" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>149</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>30</v>
+      </c>
+      <c r="O141" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142">
+        <v>3417</v>
+      </c>
+      <c r="B142" t="s">
+        <v>267</v>
+      </c>
+      <c r="C142" t="s">
+        <v>132</v>
+      </c>
+      <c r="D142" t="s">
+        <v>236</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142">
+        <v>9567890</v>
+      </c>
+      <c r="H142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>149</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>30</v>
+      </c>
+      <c r="O142">
+        <v>549995195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143">
+        <v>1651</v>
+      </c>
+      <c r="B143" t="s">
+        <v>268</v>
+      </c>
+      <c r="C143" t="s">
+        <v>129</v>
+      </c>
+      <c r="D143" t="s">
+        <v>236</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143">
+        <v>2071051</v>
+      </c>
+      <c r="H143" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>149</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>10</v>
+      </c>
+      <c r="N143" t="s">
+        <v>269</v>
+      </c>
+      <c r="O143" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144">
+        <v>1084</v>
+      </c>
+      <c r="B144" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" t="s">
+        <v>134</v>
+      </c>
+      <c r="D144" t="s">
+        <v>260</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144">
+        <v>8401084</v>
+      </c>
+      <c r="H144" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>149</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>30</v>
+      </c>
+      <c r="O144">
+        <v>528112316</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>271</v>
+      </c>
+      <c r="C145" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145" t="s">
+        <v>260</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145">
+        <v>2145088</v>
+      </c>
+      <c r="H145" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145" t="s">
+        <v>149</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>30</v>
+      </c>
+      <c r="O145">
+        <v>522000008</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146">
+        <v>6777</v>
+      </c>
+      <c r="B146" t="s">
+        <v>272</v>
+      </c>
+      <c r="C146" t="s">
+        <v>133</v>
+      </c>
+      <c r="D146" t="s">
+        <v>249</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146">
+        <v>2144838</v>
+      </c>
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>150</v>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>30</v>
+      </c>
+      <c r="O146" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147">
+        <v>17081571</v>
+      </c>
+      <c r="B147" t="s">
+        <v>274</v>
+      </c>
+      <c r="D147" t="s">
+        <v>239</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" t="b">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
+        <v>149</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>60</v>
+      </c>
+      <c r="O147">
+        <v>523395030</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148">
+        <v>3859</v>
+      </c>
+      <c r="B148" t="s">
+        <v>275</v>
+      </c>
+      <c r="C148" t="s">
+        <v>133</v>
+      </c>
+      <c r="D148" t="s">
+        <v>260</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148">
+        <v>2071386</v>
+      </c>
+      <c r="H148" t="b">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>149</v>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>50</v>
+      </c>
+      <c r="O148" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>277</v>
+      </c>
+      <c r="C149" t="s">
+        <v>133</v>
+      </c>
+      <c r="D149" t="s">
+        <v>260</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F149" s="2"/>
+      <c r="G149">
+        <v>2071685</v>
+      </c>
+      <c r="H149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>149</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>30</v>
+      </c>
+      <c r="O149" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150">
+        <v>3957</v>
+      </c>
+      <c r="B150" t="s">
+        <v>279</v>
+      </c>
+      <c r="C150" t="s">
+        <v>130</v>
+      </c>
+      <c r="D150" t="s">
+        <v>236</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150">
+        <v>9151160</v>
+      </c>
+      <c r="H150" t="b">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>149</v>
+      </c>
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>30</v>
+      </c>
+      <c r="O150" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151">
+        <v>86</v>
+      </c>
+      <c r="B151" t="s">
+        <v>281</v>
+      </c>
+      <c r="C151" t="s">
+        <v>128</v>
+      </c>
+      <c r="D151" t="s">
+        <v>236</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151">
+        <v>2071072</v>
+      </c>
+      <c r="H151" t="b">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>149</v>
+      </c>
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>30</v>
+      </c>
+      <c r="O151" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152">
+        <v>5715</v>
+      </c>
+      <c r="B152" t="s">
+        <v>283</v>
+      </c>
+      <c r="C152" t="s">
+        <v>135</v>
+      </c>
+      <c r="D152" t="s">
+        <v>284</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152">
+        <v>2069556</v>
+      </c>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>150</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153">
+        <v>3915</v>
+      </c>
+      <c r="B153" t="s">
+        <v>286</v>
+      </c>
+      <c r="C153" t="s">
+        <v>129</v>
+      </c>
+      <c r="D153" t="s">
+        <v>236</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153">
+        <v>2071169</v>
+      </c>
+      <c r="H153" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>149</v>
+      </c>
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>30</v>
+      </c>
+      <c r="O153" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154">
+        <v>1169</v>
+      </c>
+      <c r="B154" t="s">
+        <v>288</v>
+      </c>
+      <c r="C154" t="s">
+        <v>133</v>
+      </c>
+      <c r="D154" t="s">
+        <v>239</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154">
+        <v>2071087</v>
+      </c>
+      <c r="H154" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>149</v>
+      </c>
+      <c r="K154" t="b">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>30</v>
+      </c>
+      <c r="O154" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155">
+        <v>6390</v>
+      </c>
+      <c r="B155" t="s">
+        <v>290</v>
+      </c>
+      <c r="C155" t="s">
+        <v>137</v>
+      </c>
+      <c r="D155" t="s">
+        <v>242</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155">
+        <v>2801369</v>
+      </c>
+      <c r="H155" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>149</v>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>30</v>
+      </c>
+      <c r="O155" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156">
+        <v>6099</v>
+      </c>
+      <c r="B156" t="s">
+        <v>292</v>
+      </c>
+      <c r="C156" t="s">
+        <v>136</v>
+      </c>
+      <c r="D156" t="s">
+        <v>265</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F156" s="2"/>
+      <c r="G156">
+        <v>2057489</v>
+      </c>
+      <c r="H156" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156" t="s">
+        <v>149</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>50</v>
+      </c>
+      <c r="O156" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157">
+        <v>3208</v>
+      </c>
+      <c r="B157" t="s">
+        <v>294</v>
+      </c>
+      <c r="C157" t="s">
+        <v>129</v>
+      </c>
+      <c r="D157" t="s">
+        <v>249</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157">
+        <v>2071129</v>
+      </c>
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="s">
+        <v>150</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>10</v>
+      </c>
+      <c r="N157" t="s">
+        <v>269</v>
+      </c>
+      <c r="O157" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158">
+        <v>3209</v>
+      </c>
+      <c r="B158" t="s">
+        <v>296</v>
+      </c>
+      <c r="C158" t="s">
+        <v>129</v>
+      </c>
+      <c r="D158" t="s">
+        <v>239</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="F158" s="2"/>
+      <c r="G158">
+        <v>2071130</v>
+      </c>
+      <c r="H158" t="b">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>149</v>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>10</v>
+      </c>
+      <c r="N158" t="s">
+        <v>269</v>
+      </c>
+      <c r="O158" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159">
+        <v>3309</v>
+      </c>
+      <c r="B159" t="s">
+        <v>298</v>
+      </c>
+      <c r="C159" t="s">
+        <v>129</v>
+      </c>
+      <c r="D159" t="s">
+        <v>242</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159">
+        <v>8103006</v>
+      </c>
+      <c r="H159" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>149</v>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>10</v>
+      </c>
+      <c r="N159" t="s">
+        <v>269</v>
+      </c>
+      <c r="O159" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160">
+        <v>822</v>
+      </c>
+      <c r="B160" t="s">
+        <v>122</v>
+      </c>
+      <c r="C160" t="s">
+        <v>128</v>
+      </c>
+      <c r="D160" t="s">
+        <v>242</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F160" s="2"/>
+      <c r="G160">
+        <v>2071070</v>
+      </c>
+      <c r="H160" t="b">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>149</v>
+      </c>
+      <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>30</v>
+      </c>
+      <c r="O160" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161">
+        <v>3904</v>
+      </c>
+      <c r="B161" t="s">
+        <v>299</v>
+      </c>
+      <c r="C161" t="s">
+        <v>133</v>
+      </c>
+      <c r="D161" t="s">
+        <v>265</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161">
+        <v>2123195</v>
+      </c>
+      <c r="H161" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>149</v>
+      </c>
+      <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>50</v>
+      </c>
+      <c r="O161" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162">
+        <v>6308</v>
+      </c>
+      <c r="B162" t="s">
+        <v>301</v>
+      </c>
+      <c r="C162" t="s">
+        <v>133</v>
+      </c>
+      <c r="D162" t="s">
+        <v>236</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162">
+        <v>2123189</v>
+      </c>
+      <c r="H162" t="b">
+        <v>1</v>
+      </c>
+      <c r="I162" t="s">
+        <v>149</v>
+      </c>
+      <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>30</v>
+      </c>
+      <c r="O162" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163">
+        <v>2424</v>
+      </c>
+      <c r="B163" t="s">
+        <v>303</v>
+      </c>
+      <c r="C163" t="s">
+        <v>128</v>
+      </c>
+      <c r="D163" t="s">
+        <v>239</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163">
+        <v>2071157</v>
+      </c>
+      <c r="H163" t="b">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>149</v>
+      </c>
+      <c r="K163" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>30</v>
+      </c>
+      <c r="O163" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164">
+        <v>6658</v>
+      </c>
+      <c r="B164" t="s">
+        <v>305</v>
+      </c>
+      <c r="C164" t="s">
+        <v>133</v>
+      </c>
+      <c r="D164" t="s">
+        <v>239</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164">
+        <v>2071613</v>
+      </c>
+      <c r="H164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>149</v>
+      </c>
+      <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>30</v>
+      </c>
+      <c r="O164" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165">
+        <v>2784</v>
+      </c>
+      <c r="B165" t="s">
+        <v>307</v>
+      </c>
+      <c r="C165" t="s">
+        <v>133</v>
+      </c>
+      <c r="D165" t="s">
+        <v>260</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165">
+        <v>2071385</v>
+      </c>
+      <c r="H165" t="b">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
+        <v>149</v>
+      </c>
+      <c r="K165" t="b">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>30</v>
+      </c>
+      <c r="O165" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166">
+        <v>941</v>
+      </c>
+      <c r="B166" t="s">
+        <v>309</v>
+      </c>
+      <c r="C166" t="s">
+        <v>129</v>
+      </c>
+      <c r="D166" t="s">
+        <v>236</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F166" s="2"/>
+      <c r="G166">
+        <v>7010420</v>
+      </c>
+      <c r="H166" t="b">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>149</v>
+      </c>
+      <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>10</v>
+      </c>
+      <c r="N166" t="s">
+        <v>269</v>
+      </c>
+      <c r="O166" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167">
+        <v>5349</v>
+      </c>
+      <c r="B167" t="s">
+        <v>311</v>
+      </c>
+      <c r="C167" t="s">
+        <v>133</v>
+      </c>
+      <c r="D167" t="s">
+        <v>260</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167">
+        <v>2221188</v>
+      </c>
+      <c r="H167" t="b">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
+        <v>149</v>
+      </c>
+      <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>30</v>
+      </c>
+      <c r="O167" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168">
+        <v>5169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>313</v>
+      </c>
+      <c r="C168" t="s">
+        <v>132</v>
+      </c>
+      <c r="D168" t="s">
+        <v>260</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168" t="b">
+        <v>1</v>
+      </c>
+      <c r="I168" t="s">
+        <v>149</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>40</v>
+      </c>
+      <c r="O168" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169">
+        <v>931</v>
+      </c>
+      <c r="B169" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" t="s">
+        <v>133</v>
+      </c>
+      <c r="D169" t="s">
+        <v>236</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169">
+        <v>7770005</v>
+      </c>
+      <c r="H169" t="b">
+        <v>1</v>
+      </c>
+      <c r="I169" t="s">
+        <v>149</v>
+      </c>
+      <c r="K169" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>30</v>
+      </c>
+      <c r="O169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170">
+        <v>4501</v>
+      </c>
+      <c r="B170" t="s">
+        <v>315</v>
+      </c>
+      <c r="C170" t="s">
+        <v>138</v>
+      </c>
+      <c r="D170" t="s">
+        <v>265</v>
+      </c>
+      <c r="E170" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170">
+        <v>2071127</v>
+      </c>
+      <c r="H170" t="b">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
+        <v>149</v>
+      </c>
+      <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>30</v>
+      </c>
+      <c r="O170">
+        <v>527588224</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171">
+        <v>3376</v>
+      </c>
+      <c r="B171" t="s">
+        <v>316</v>
+      </c>
+      <c r="C171" t="s">
+        <v>135</v>
+      </c>
+      <c r="D171" t="s">
+        <v>236</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171">
+        <v>1413612</v>
+      </c>
+      <c r="H171" t="b">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>149</v>
+      </c>
+      <c r="K171" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172">
+        <v>7182</v>
+      </c>
+      <c r="B172" t="s">
+        <v>318</v>
+      </c>
+      <c r="C172" t="s">
+        <v>128</v>
+      </c>
+      <c r="D172" t="s">
+        <v>236</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172" t="b">
+        <v>1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>149</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>40</v>
+      </c>
+      <c r="O172" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173">
+        <v>471</v>
+      </c>
+      <c r="B173" t="s">
+        <v>320</v>
+      </c>
+      <c r="C173" t="s">
+        <v>133</v>
+      </c>
+      <c r="D173" t="s">
+        <v>236</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173">
+        <v>7212589</v>
+      </c>
+      <c r="H173" t="b">
+        <v>1</v>
+      </c>
+      <c r="I173" t="s">
+        <v>149</v>
+      </c>
+      <c r="K173" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>30</v>
+      </c>
+      <c r="O173" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174">
+        <v>5565</v>
+      </c>
+      <c r="B174" t="s">
+        <v>322</v>
+      </c>
+      <c r="C174" t="s">
+        <v>133</v>
+      </c>
+      <c r="D174" t="s">
+        <v>236</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174">
+        <v>1113709</v>
+      </c>
+      <c r="H174" t="b">
+        <v>1</v>
+      </c>
+      <c r="I174" t="s">
+        <v>149</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>30</v>
+      </c>
+      <c r="O174">
+        <v>525202022</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="A175">
+        <v>4797</v>
+      </c>
+      <c r="B175" t="s">
+        <v>323</v>
+      </c>
+      <c r="C175" t="s">
+        <v>132</v>
+      </c>
+      <c r="D175" t="s">
+        <v>260</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175">
+        <v>2071045</v>
+      </c>
+      <c r="H175" t="b">
+        <v>1</v>
+      </c>
+      <c r="I175" t="s">
+        <v>149</v>
+      </c>
+      <c r="K175" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>30</v>
+      </c>
+      <c r="O175" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176">
+        <v>6496</v>
+      </c>
+      <c r="B176" t="s">
+        <v>82</v>
+      </c>
+      <c r="C176" t="s">
+        <v>129</v>
+      </c>
+      <c r="D176" t="s">
+        <v>325</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="F176" s="2"/>
+      <c r="G176">
+        <v>7555551</v>
+      </c>
+      <c r="H176" t="b">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
+        <v>149</v>
+      </c>
+      <c r="K176" t="b">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>30</v>
+      </c>
+      <c r="O176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177">
+        <v>4394</v>
+      </c>
+      <c r="B177" t="s">
+        <v>326</v>
+      </c>
+      <c r="C177" t="s">
+        <v>129</v>
+      </c>
+      <c r="D177" t="s">
+        <v>260</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177">
+        <v>2068639</v>
+      </c>
+      <c r="H177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I177" t="s">
+        <v>149</v>
+      </c>
+      <c r="K177" t="b">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>10</v>
+      </c>
+      <c r="N177" t="s">
+        <v>269</v>
+      </c>
+      <c r="O177" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>